--- a/REGULAR/OJT/NEW DONE/UNTALAN, DIVINA R..xlsx
+++ b/REGULAR/OJT/NEW DONE/UNTALAN, DIVINA R..xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\NEW DONE\New folder\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\NEW DONE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57FF83B5-3B9C-46D0-9737-C91C45C22B9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AE53195-9B31-41A8-85DF-E3C3F0130C09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11520" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="1428" yWindow="1428" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="276">
   <si>
     <t>PERIOD</t>
   </si>
@@ -186,18 +186,12 @@
     <t>1/17/19/2018</t>
   </si>
   <si>
-    <t>SL(1-0-00)</t>
-  </si>
-  <si>
     <t>SP(1-0-00)</t>
   </si>
   <si>
     <t>4/18/2018</t>
   </si>
   <si>
-    <t>SL(2-0-00)</t>
-  </si>
-  <si>
     <t>5/5/6/2018</t>
   </si>
   <si>
@@ -207,13 +201,7 @@
     <t>9/18/19/2018</t>
   </si>
   <si>
-    <t>SL(4-0-00)</t>
-  </si>
-  <si>
     <t>10/26/29/31/2018</t>
-  </si>
-  <si>
-    <t>FL(5-0-00)</t>
   </si>
   <si>
     <t>2019</t>
@@ -1566,7 +1554,7 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
       <sheetData sheetId="2" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
@@ -1575,6 +1563,7 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K492" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+  <autoFilter ref="A8:K492" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}"/>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="10"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="9"/>
@@ -1906,9 +1895,9 @@
   <dimension ref="A2:K492"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
-      <pane ySplit="3612" topLeftCell="A330" activePane="bottomLeft"/>
-      <selection activeCell="K8" sqref="A8:K8"/>
-      <selection pane="bottomLeft" activeCell="F336" sqref="F336"/>
+      <pane ySplit="3612" topLeftCell="A127"/>
+      <selection activeCell="I9" sqref="I9"/>
+      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2073,7 +2062,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>197.57200000000003</v>
+        <v>199.57200000000003</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -2083,14 +2072,14 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>250.29200000000003</v>
+        <v>248.29200000000003</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="48" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B10" s="50"/>
       <c r="C10" s="13"/>
@@ -2313,7 +2302,7 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="48" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B21" s="50"/>
       <c r="C21" s="13"/>
@@ -2398,7 +2387,7 @@
         <v>35886</v>
       </c>
       <c r="B25" s="20" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C25" s="13">
         <v>1.25</v>
@@ -2422,7 +2411,7 @@
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="23"/>
       <c r="B26" s="20" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C26" s="13"/>
       <c r="D26" s="39">
@@ -2442,7 +2431,7 @@
         <v>35916</v>
       </c>
       <c r="B27" s="20" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C27" s="13">
         <v>1.25</v>
@@ -2593,7 +2582,7 @@
         <v>36130</v>
       </c>
       <c r="B34" s="20" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C34" s="13">
         <v>1.25</v>
@@ -2611,12 +2600,12 @@
       <c r="I34" s="13"/>
       <c r="J34" s="11"/>
       <c r="K34" s="20" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="48" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B35" s="20"/>
       <c r="C35" s="13"/>
@@ -2701,7 +2690,7 @@
         <v>36251</v>
       </c>
       <c r="B39" s="20" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C39" s="13">
         <v>1.25</v>
@@ -2719,7 +2708,7 @@
       <c r="I39" s="13"/>
       <c r="J39" s="11"/>
       <c r="K39" s="20" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
@@ -2742,7 +2731,7 @@
       <c r="I40" s="13"/>
       <c r="J40" s="11"/>
       <c r="K40" s="20" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
@@ -2814,7 +2803,7 @@
         <v>36404</v>
       </c>
       <c r="B44" s="20" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C44" s="13">
         <v>1.25</v>
@@ -2839,7 +2828,7 @@
         <v>36434</v>
       </c>
       <c r="B45" s="20" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C45" s="13">
         <v>1.25</v>
@@ -2857,7 +2846,7 @@
       <c r="I45" s="13"/>
       <c r="J45" s="11"/>
       <c r="K45" s="20" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.3">
@@ -2866,7 +2855,7 @@
         <v>36465</v>
       </c>
       <c r="B46" s="20" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C46" s="13">
         <v>1.25</v>
@@ -2884,13 +2873,13 @@
       <c r="I46" s="13"/>
       <c r="J46" s="11"/>
       <c r="K46" s="20" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="23"/>
       <c r="B47" s="20" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C47" s="13"/>
       <c r="D47" s="39">
@@ -2910,7 +2899,7 @@
         <v>36495</v>
       </c>
       <c r="B48" s="20" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C48" s="13">
         <v>1.25</v>
@@ -2928,13 +2917,13 @@
       <c r="I48" s="13"/>
       <c r="J48" s="11"/>
       <c r="K48" s="20" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="23"/>
       <c r="B49" s="20" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C49" s="13"/>
       <c r="D49" s="39">
@@ -2954,7 +2943,7 @@
     <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="23"/>
       <c r="B50" s="20" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C50" s="13"/>
       <c r="D50" s="39">
@@ -2973,7 +2962,7 @@
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="48" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B51" s="20"/>
       <c r="C51" s="13"/>
@@ -2995,7 +2984,7 @@
         <v>36526</v>
       </c>
       <c r="B52" s="20" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C52" s="13">
         <v>1.25</v>
@@ -3041,7 +3030,7 @@
         <v>36586</v>
       </c>
       <c r="B54" s="20" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C54" s="13">
         <v>1.25</v>
@@ -3087,7 +3076,7 @@
         <v>36647</v>
       </c>
       <c r="B56" s="20" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C56" s="13">
         <v>1.25</v>
@@ -3112,7 +3101,7 @@
         <v>36678</v>
       </c>
       <c r="B57" s="20" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C57" s="13">
         <v>1.25</v>
@@ -3137,7 +3126,7 @@
         <v>36708</v>
       </c>
       <c r="B58" s="20" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C58" s="13">
         <v>1.25</v>
@@ -3155,7 +3144,7 @@
       <c r="I58" s="13"/>
       <c r="J58" s="11"/>
       <c r="K58" s="20" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.3">
@@ -3164,7 +3153,7 @@
         <v>36739</v>
       </c>
       <c r="B59" s="20" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C59" s="13">
         <v>1.25</v>
@@ -3189,7 +3178,7 @@
         <v>36770</v>
       </c>
       <c r="B60" s="20" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C60" s="13">
         <v>1.25</v>
@@ -3214,7 +3203,7 @@
         <v>36800</v>
       </c>
       <c r="B61" s="20" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C61" s="13">
         <v>1.25</v>
@@ -3239,7 +3228,7 @@
         <v>36831</v>
       </c>
       <c r="B62" s="20" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C62" s="13">
         <v>1.25</v>
@@ -3257,7 +3246,7 @@
       <c r="I62" s="13"/>
       <c r="J62" s="11"/>
       <c r="K62" s="20" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.3">
@@ -3266,7 +3255,7 @@
         <v>36861</v>
       </c>
       <c r="B63" s="20" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C63" s="13">
         <v>1.25</v>
@@ -3287,7 +3276,7 @@
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="48" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B64" s="20"/>
       <c r="C64" s="13"/>
@@ -3309,7 +3298,7 @@
         <v>36892</v>
       </c>
       <c r="B65" s="20" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C65" s="13">
         <v>1.25</v>
@@ -3334,7 +3323,7 @@
         <v>36923</v>
       </c>
       <c r="B66" s="20" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C66" s="13">
         <v>1.25</v>
@@ -3359,7 +3348,7 @@
         <v>36951</v>
       </c>
       <c r="B67" s="20" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C67" s="13">
         <v>1.25</v>
@@ -3377,13 +3366,13 @@
       <c r="I67" s="13"/>
       <c r="J67" s="11"/>
       <c r="K67" s="20" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="23"/>
       <c r="B68" s="20" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C68" s="13"/>
       <c r="D68" s="39">
@@ -3424,7 +3413,7 @@
         <v>37012</v>
       </c>
       <c r="B70" s="20" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C70" s="13">
         <v>1.25</v>
@@ -3491,7 +3480,7 @@
         <v>37104</v>
       </c>
       <c r="B73" s="20" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C73" s="13">
         <v>1.25</v>
@@ -3509,13 +3498,13 @@
       <c r="I73" s="13"/>
       <c r="J73" s="11"/>
       <c r="K73" s="20" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="23"/>
       <c r="B74" s="20" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C74" s="13"/>
       <c r="D74" s="39">
@@ -3535,7 +3524,7 @@
         <v>37135</v>
       </c>
       <c r="B75" s="20" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C75" s="13">
         <v>1.25</v>
@@ -3581,7 +3570,7 @@
         <v>37196</v>
       </c>
       <c r="B77" s="20" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C77" s="13">
         <v>1.25</v>
@@ -3599,7 +3588,7 @@
       <c r="I77" s="13"/>
       <c r="J77" s="11"/>
       <c r="K77" s="20" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.3">
@@ -3625,7 +3614,7 @@
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="48" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B79" s="20"/>
       <c r="C79" s="13"/>
@@ -3731,7 +3720,7 @@
         <v>37377</v>
       </c>
       <c r="B84" s="20" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C84" s="13">
         <v>1.25</v>
@@ -3747,7 +3736,7 @@
       <c r="I84" s="13"/>
       <c r="J84" s="11"/>
       <c r="K84" s="20" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.3">
@@ -3756,7 +3745,7 @@
         <v>37408</v>
       </c>
       <c r="B85" s="20" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C85" s="13">
         <v>1.25</v>
@@ -3772,13 +3761,13 @@
       <c r="I85" s="13"/>
       <c r="J85" s="11"/>
       <c r="K85" s="20" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="23"/>
       <c r="B86" s="20" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C86" s="13"/>
       <c r="D86" s="39"/>
@@ -3789,7 +3778,7 @@
       <c r="I86" s="13"/>
       <c r="J86" s="11"/>
       <c r="K86" s="20" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.3">
@@ -3861,7 +3850,7 @@
         <v>37530</v>
       </c>
       <c r="B90" s="20" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C90" s="13">
         <v>1.25</v>
@@ -3879,7 +3868,7 @@
       <c r="I90" s="13"/>
       <c r="J90" s="11"/>
       <c r="K90" s="20" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.3">
@@ -3888,7 +3877,7 @@
         <v>37561</v>
       </c>
       <c r="B91" s="20" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C91" s="13">
         <v>1.25</v>
@@ -3906,13 +3895,13 @@
       <c r="I91" s="13"/>
       <c r="J91" s="11"/>
       <c r="K91" s="20" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="23"/>
       <c r="B92" s="20" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C92" s="13"/>
       <c r="D92" s="39">
@@ -3925,7 +3914,7 @@
       <c r="I92" s="13"/>
       <c r="J92" s="11"/>
       <c r="K92" s="20" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.3">
@@ -3934,7 +3923,7 @@
         <v>37591</v>
       </c>
       <c r="B93" s="20" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C93" s="13">
         <v>1.25</v>
@@ -3955,7 +3944,7 @@
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="48" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
@@ -4208,7 +4197,7 @@
         <v>37956</v>
       </c>
       <c r="B106" s="20" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C106" s="13">
         <v>1.25</v>
@@ -4226,12 +4215,12 @@
       <c r="I106" s="13"/>
       <c r="J106" s="11"/>
       <c r="K106" s="20" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="48" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
@@ -4295,7 +4284,7 @@
         <v>38047</v>
       </c>
       <c r="B110" s="20" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C110" s="13">
         <v>1.25</v>
@@ -4313,13 +4302,13 @@
       <c r="I110" s="13"/>
       <c r="J110" s="11"/>
       <c r="K110" s="20" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="23"/>
       <c r="B111" s="20" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C111" s="13"/>
       <c r="D111" s="39"/>
@@ -4330,7 +4319,7 @@
       <c r="I111" s="13"/>
       <c r="J111" s="11"/>
       <c r="K111" s="20" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.3">
@@ -4360,7 +4349,7 @@
         <v>38108</v>
       </c>
       <c r="B113" s="20" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C113" s="13">
         <v>1.25</v>
@@ -4376,7 +4365,7 @@
       <c r="I113" s="13"/>
       <c r="J113" s="11"/>
       <c r="K113" s="20" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.3">
@@ -4406,7 +4395,7 @@
         <v>38169</v>
       </c>
       <c r="B115" s="20" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C115" s="13">
         <v>1.25</v>
@@ -4433,31 +4422,31 @@
         <v>38200</v>
       </c>
       <c r="B116" s="20" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C116" s="13">
         <v>1.25</v>
       </c>
-      <c r="D116" s="39">
-        <v>2</v>
-      </c>
+      <c r="D116" s="39"/>
       <c r="E116" s="13"/>
       <c r="F116" s="20"/>
       <c r="G116" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H116" s="39"/>
+      <c r="H116" s="39">
+        <v>2</v>
+      </c>
       <c r="I116" s="13"/>
       <c r="J116" s="11"/>
       <c r="K116" s="20" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="23"/>
       <c r="B117" s="20" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C117" s="13"/>
       <c r="D117" s="39">
@@ -4477,7 +4466,7 @@
         <v>38231</v>
       </c>
       <c r="B118" s="20" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C118" s="13">
         <v>1.25</v>
@@ -4501,7 +4490,7 @@
     <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="23"/>
       <c r="B119" s="20" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C119" s="13"/>
       <c r="D119" s="39"/>
@@ -4514,7 +4503,7 @@
       <c r="I119" s="13"/>
       <c r="J119" s="11"/>
       <c r="K119" s="20" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.3">
@@ -4544,7 +4533,7 @@
         <v>38292</v>
       </c>
       <c r="B121" s="20" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C121" s="13">
         <v>1.25</v>
@@ -4568,7 +4557,7 @@
     <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="23"/>
       <c r="B122" s="20" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C122" s="13"/>
       <c r="D122" s="39">
@@ -4581,13 +4570,13 @@
       <c r="I122" s="13"/>
       <c r="J122" s="11"/>
       <c r="K122" s="20" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="23"/>
       <c r="B123" s="20" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C123" s="13"/>
       <c r="D123" s="39"/>
@@ -4600,13 +4589,13 @@
       <c r="I123" s="13"/>
       <c r="J123" s="11"/>
       <c r="K123" s="20" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="23"/>
       <c r="B124" s="20" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C124" s="13"/>
       <c r="D124" s="39"/>
@@ -4617,13 +4606,13 @@
       <c r="I124" s="13"/>
       <c r="J124" s="11"/>
       <c r="K124" s="20" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="23"/>
       <c r="B125" s="20" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C125" s="13"/>
       <c r="D125" s="39">
@@ -4643,7 +4632,7 @@
         <v>38322</v>
       </c>
       <c r="B126" s="20" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C126" s="13">
         <v>1.25</v>
@@ -4661,13 +4650,13 @@
       <c r="I126" s="13"/>
       <c r="J126" s="11"/>
       <c r="K126" s="20" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="23"/>
       <c r="B127" s="20" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C127" s="13"/>
       <c r="D127" s="39">
@@ -4686,7 +4675,7 @@
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="48" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B128" s="20"/>
       <c r="C128" s="13"/>
@@ -4708,7 +4697,7 @@
         <v>38353</v>
       </c>
       <c r="B129" s="20" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C129" s="13">
         <v>1.25</v>
@@ -4726,13 +4715,13 @@
       <c r="I129" s="13"/>
       <c r="J129" s="11"/>
       <c r="K129" s="20" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="23"/>
       <c r="B130" s="20" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C130" s="13"/>
       <c r="D130" s="39"/>
@@ -4751,7 +4740,7 @@
     <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="23"/>
       <c r="B131" s="20" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C131" s="13"/>
       <c r="D131" s="39"/>
@@ -4762,13 +4751,13 @@
       <c r="I131" s="13"/>
       <c r="J131" s="11"/>
       <c r="K131" s="20" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="23"/>
       <c r="B132" s="20" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C132" s="13"/>
       <c r="D132" s="39">
@@ -4788,7 +4777,7 @@
         <v>38384</v>
       </c>
       <c r="B133" s="20" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C133" s="13">
         <v>1.25</v>
@@ -4812,7 +4801,7 @@
     <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" s="23"/>
       <c r="B134" s="20" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C134" s="13"/>
       <c r="D134" s="39">
@@ -4832,7 +4821,7 @@
         <v>38412</v>
       </c>
       <c r="B135" s="20" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C135" s="13">
         <v>1.25</v>
@@ -4856,7 +4845,7 @@
     <row r="136" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A136" s="23"/>
       <c r="B136" s="20" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C136" s="13"/>
       <c r="D136" s="39"/>
@@ -4869,13 +4858,13 @@
       <c r="I136" s="13"/>
       <c r="J136" s="11"/>
       <c r="K136" s="20" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A137" s="23"/>
       <c r="B137" s="20" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C137" s="13"/>
       <c r="D137" s="39">
@@ -4895,7 +4884,7 @@
         <v>38443</v>
       </c>
       <c r="B138" s="20" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C138" s="13">
         <v>1.25</v>
@@ -4911,13 +4900,13 @@
       <c r="I138" s="13"/>
       <c r="J138" s="11"/>
       <c r="K138" s="20" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A139" s="23"/>
       <c r="B139" s="20" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C139" s="13"/>
       <c r="D139" s="39"/>
@@ -4936,7 +4925,7 @@
     <row r="140" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A140" s="23"/>
       <c r="B140" s="20" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C140" s="13"/>
       <c r="D140" s="39">
@@ -4955,7 +4944,7 @@
     <row r="141" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A141" s="23"/>
       <c r="B141" s="20" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C141" s="13"/>
       <c r="D141" s="39">
@@ -4975,7 +4964,7 @@
         <v>38473</v>
       </c>
       <c r="B142" s="20" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C142" s="13">
         <v>1.25</v>
@@ -4993,13 +4982,13 @@
       <c r="I142" s="13"/>
       <c r="J142" s="11"/>
       <c r="K142" s="20" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A143" s="23"/>
       <c r="B143" s="20" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C143" s="13"/>
       <c r="D143" s="39">
@@ -5019,7 +5008,7 @@
         <v>38504</v>
       </c>
       <c r="B144" s="20" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C144" s="13">
         <v>1.25</v>
@@ -5041,7 +5030,7 @@
     <row r="145" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A145" s="23"/>
       <c r="B145" s="20" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C145" s="13"/>
       <c r="D145" s="39">
@@ -5061,7 +5050,7 @@
         <v>38534</v>
       </c>
       <c r="B146" s="20" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C146" s="13">
         <v>1.25</v>
@@ -5086,7 +5075,7 @@
         <v>38565</v>
       </c>
       <c r="B147" s="20" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C147" s="13">
         <v>1.25</v>
@@ -5104,13 +5093,13 @@
       <c r="I147" s="13"/>
       <c r="J147" s="11"/>
       <c r="K147" s="20" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A148" s="23"/>
       <c r="B148" s="20" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C148" s="13"/>
       <c r="D148" s="39">
@@ -5130,7 +5119,7 @@
         <v>38596</v>
       </c>
       <c r="B149" s="20" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C149" s="13">
         <v>1.25</v>
@@ -5155,7 +5144,7 @@
         <v>38626</v>
       </c>
       <c r="B150" s="20" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C150" s="13">
         <v>1.25</v>
@@ -5180,7 +5169,7 @@
         <v>38657</v>
       </c>
       <c r="B151" s="20" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C151" s="13">
         <v>1.25</v>
@@ -5198,13 +5187,13 @@
       <c r="I151" s="13"/>
       <c r="J151" s="11"/>
       <c r="K151" s="20" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A152" s="23"/>
       <c r="B152" s="20" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C152" s="13"/>
       <c r="D152" s="39">
@@ -5224,7 +5213,7 @@
         <v>38687</v>
       </c>
       <c r="B153" s="20" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C153" s="13">
         <v>1.25</v>
@@ -5245,7 +5234,7 @@
     </row>
     <row r="154" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A154" s="48" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B154" s="20"/>
       <c r="C154" s="13"/>
@@ -5267,7 +5256,7 @@
         <v>38718</v>
       </c>
       <c r="B155" s="20" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C155" s="13">
         <v>1.25</v>
@@ -5313,7 +5302,7 @@
         <v>38777</v>
       </c>
       <c r="B157" s="20" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C157" s="13">
         <v>1.25</v>
@@ -5329,7 +5318,7 @@
       <c r="I157" s="13"/>
       <c r="J157" s="11"/>
       <c r="K157" s="20" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="158" spans="1:11" x14ac:dyDescent="0.3">
@@ -5380,7 +5369,7 @@
         <v>38869</v>
       </c>
       <c r="B160" s="20" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C160" s="13">
         <v>1.25</v>
@@ -5396,7 +5385,7 @@
       <c r="I160" s="13"/>
       <c r="J160" s="11"/>
       <c r="K160" s="20" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="161" spans="1:11" x14ac:dyDescent="0.3">
@@ -5447,7 +5436,7 @@
         <v>38961</v>
       </c>
       <c r="B163" s="20" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C163" s="13">
         <v>1.25</v>
@@ -5472,7 +5461,7 @@
         <v>38991</v>
       </c>
       <c r="B164" s="20" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C164" s="13">
         <v>1.25</v>
@@ -5518,7 +5507,7 @@
         <v>39052</v>
       </c>
       <c r="B166" s="20" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C166" s="13">
         <v>1.25</v>
@@ -5539,7 +5528,7 @@
     </row>
     <row r="167" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A167" s="48" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="B167" s="20"/>
       <c r="C167" s="13"/>
@@ -5771,7 +5760,7 @@
         <v>39387</v>
       </c>
       <c r="B178" s="20" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C178" s="13">
         <v>1.25</v>
@@ -5789,13 +5778,13 @@
       <c r="I178" s="13"/>
       <c r="J178" s="11"/>
       <c r="K178" s="20" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="179" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A179" s="23"/>
       <c r="B179" s="20" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C179" s="13"/>
       <c r="D179" s="39">
@@ -5808,7 +5797,7 @@
       <c r="I179" s="13"/>
       <c r="J179" s="11"/>
       <c r="K179" s="20" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="180" spans="1:11" x14ac:dyDescent="0.3">
@@ -5834,7 +5823,7 @@
     </row>
     <row r="181" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A181" s="48" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B181" s="20"/>
       <c r="C181" s="13"/>
@@ -5898,7 +5887,7 @@
         <v>39508</v>
       </c>
       <c r="B184" s="20" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C184" s="13">
         <v>1.25</v>
@@ -5923,7 +5912,7 @@
         <v>39539</v>
       </c>
       <c r="B185" s="20" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C185" s="13">
         <v>1.25</v>
@@ -6011,7 +6000,7 @@
         <v>39661</v>
       </c>
       <c r="B189" s="20" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C189" s="13">
         <v>1.25</v>
@@ -6033,7 +6022,7 @@
     <row r="190" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A190" s="23"/>
       <c r="B190" s="20" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C190" s="13"/>
       <c r="D190" s="39"/>
@@ -6055,7 +6044,7 @@
         <v>39692</v>
       </c>
       <c r="B191" s="20" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C191" s="13">
         <v>1.25</v>
@@ -6080,7 +6069,7 @@
         <v>39722</v>
       </c>
       <c r="B192" s="20" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C192" s="13">
         <v>1.25</v>
@@ -6105,7 +6094,7 @@
         <v>39753</v>
       </c>
       <c r="B193" s="20" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C193" s="13">
         <v>1.25</v>
@@ -6130,7 +6119,7 @@
         <v>39783</v>
       </c>
       <c r="B194" s="20" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C194" s="13">
         <v>1.25</v>
@@ -6152,7 +6141,7 @@
     <row r="195" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A195" s="23"/>
       <c r="B195" s="20" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="C195" s="13"/>
       <c r="D195" s="39">
@@ -6171,7 +6160,7 @@
     </row>
     <row r="196" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A196" s="48" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="B196" s="20"/>
       <c r="C196" s="13"/>
@@ -6193,7 +6182,7 @@
         <v>39814</v>
       </c>
       <c r="B197" s="20" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C197" s="13">
         <v>1.25</v>
@@ -6211,13 +6200,13 @@
       <c r="I197" s="13"/>
       <c r="J197" s="11"/>
       <c r="K197" s="20" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="198" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A198" s="23"/>
       <c r="B198" s="20" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C198" s="13"/>
       <c r="D198" s="39">
@@ -6258,7 +6247,7 @@
         <v>39873</v>
       </c>
       <c r="B200" s="20" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C200" s="13">
         <v>1.25</v>
@@ -6283,7 +6272,7 @@
         <v>39904</v>
       </c>
       <c r="B201" s="20" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="C201" s="13">
         <v>1.25</v>
@@ -6455,7 +6444,7 @@
         <v>40148</v>
       </c>
       <c r="B209" s="20" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C209" s="13">
         <v>1.25</v>
@@ -6473,13 +6462,13 @@
       <c r="I209" s="13"/>
       <c r="J209" s="11"/>
       <c r="K209" s="20" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="210" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A210" s="23"/>
       <c r="B210" s="20" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C210" s="13"/>
       <c r="D210" s="39">
@@ -6498,7 +6487,7 @@
     </row>
     <row r="211" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A211" s="48" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="B211" s="20"/>
       <c r="C211" s="13"/>
@@ -6520,7 +6509,7 @@
         <v>40179</v>
       </c>
       <c r="B212" s="20" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C212" s="13">
         <v>1.25</v>
@@ -6538,13 +6527,13 @@
       <c r="I212" s="13"/>
       <c r="J212" s="11"/>
       <c r="K212" s="20" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="213" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A213" s="23"/>
       <c r="B213" s="20" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C213" s="13"/>
       <c r="D213" s="39"/>
@@ -6555,13 +6544,13 @@
       <c r="I213" s="13"/>
       <c r="J213" s="11"/>
       <c r="K213" s="20" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
     </row>
     <row r="214" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A214" s="23"/>
       <c r="B214" s="20" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="C214" s="13"/>
       <c r="D214" s="39">
@@ -6581,7 +6570,7 @@
         <v>40210</v>
       </c>
       <c r="B215" s="20" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="C215" s="13">
         <v>1.25</v>
@@ -6597,13 +6586,13 @@
       <c r="I215" s="13"/>
       <c r="J215" s="11"/>
       <c r="K215" s="20" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
     </row>
     <row r="216" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A216" s="23"/>
       <c r="B216" s="20" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="C216" s="13"/>
       <c r="D216" s="39">
@@ -6623,7 +6612,7 @@
         <v>40238</v>
       </c>
       <c r="B217" s="20" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="C217" s="13">
         <v>1.25</v>
@@ -6648,7 +6637,7 @@
         <v>40269</v>
       </c>
       <c r="B218" s="20" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C218" s="13">
         <v>1.25</v>
@@ -6672,7 +6661,7 @@
     <row r="219" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A219" s="23"/>
       <c r="B219" s="20" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C219" s="13"/>
       <c r="D219" s="39"/>
@@ -6683,13 +6672,13 @@
       <c r="I219" s="13"/>
       <c r="J219" s="11"/>
       <c r="K219" s="20" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
     </row>
     <row r="220" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A220" s="23"/>
       <c r="B220" s="20" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C220" s="13"/>
       <c r="D220" s="39">
@@ -6709,7 +6698,7 @@
         <v>40299</v>
       </c>
       <c r="B221" s="20" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C221" s="13">
         <v>1.25</v>
@@ -6727,13 +6716,13 @@
       <c r="I221" s="13"/>
       <c r="J221" s="11"/>
       <c r="K221" s="20" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
     <row r="222" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A222" s="23"/>
       <c r="B222" s="20" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="C222" s="13"/>
       <c r="D222" s="39">
@@ -6753,7 +6742,7 @@
         <v>40330</v>
       </c>
       <c r="B223" s="20" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="C223" s="13">
         <v>1.25</v>
@@ -6778,7 +6767,7 @@
         <v>40360</v>
       </c>
       <c r="B224" s="20" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="C224" s="13">
         <v>1.25</v>
@@ -6803,7 +6792,7 @@
         <v>40391</v>
       </c>
       <c r="B225" s="20" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C225" s="13">
         <v>1.25</v>
@@ -6828,7 +6817,7 @@
         <v>40422</v>
       </c>
       <c r="B226" s="20" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C226" s="13">
         <v>1.25</v>
@@ -6852,7 +6841,7 @@
     <row r="227" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A227" s="23"/>
       <c r="B227" s="20" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="C227" s="13"/>
       <c r="D227" s="39">
@@ -6872,7 +6861,7 @@
         <v>40452</v>
       </c>
       <c r="B228" s="20" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="C228" s="13">
         <v>1.25</v>
@@ -6897,7 +6886,7 @@
         <v>40483</v>
       </c>
       <c r="B229" s="20" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C229" s="13">
         <v>1.25</v>
@@ -6915,7 +6904,7 @@
       <c r="I229" s="13"/>
       <c r="J229" s="11"/>
       <c r="K229" s="20" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="230" spans="1:11" x14ac:dyDescent="0.3">
@@ -6924,7 +6913,7 @@
         <v>40513</v>
       </c>
       <c r="B230" s="20" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="C230" s="13">
         <v>1.25</v>
@@ -6945,7 +6934,7 @@
     </row>
     <row r="231" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A231" s="48" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="B231" s="20"/>
       <c r="C231" s="13"/>
@@ -6967,7 +6956,7 @@
         <v>40544</v>
       </c>
       <c r="B232" s="20" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C232" s="13">
         <v>1.25</v>
@@ -6991,7 +6980,7 @@
     <row r="233" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A233" s="23"/>
       <c r="B233" s="20" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C233" s="13"/>
       <c r="D233" s="39"/>
@@ -7004,13 +6993,13 @@
       <c r="I233" s="13"/>
       <c r="J233" s="11"/>
       <c r="K233" s="20" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="234" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A234" s="23"/>
       <c r="B234" s="20" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="C234" s="13"/>
       <c r="D234" s="39"/>
@@ -7021,7 +7010,7 @@
       <c r="I234" s="13"/>
       <c r="J234" s="11"/>
       <c r="K234" s="20" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
     </row>
     <row r="235" spans="1:11" x14ac:dyDescent="0.3">
@@ -7030,7 +7019,7 @@
         <v>40575</v>
       </c>
       <c r="B235" s="20" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C235" s="13">
         <v>1.25</v>
@@ -7055,7 +7044,7 @@
         <v>40603</v>
       </c>
       <c r="B236" s="20" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C236" s="13">
         <v>1.25</v>
@@ -7073,13 +7062,13 @@
       <c r="I236" s="13"/>
       <c r="J236" s="11"/>
       <c r="K236" s="20" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="237" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A237" s="23"/>
       <c r="B237" s="20" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C237" s="13"/>
       <c r="D237" s="39"/>
@@ -7098,7 +7087,7 @@
     <row r="238" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A238" s="23"/>
       <c r="B238" s="20" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C238" s="13"/>
       <c r="D238" s="39"/>
@@ -7109,13 +7098,13 @@
       <c r="I238" s="13"/>
       <c r="J238" s="11"/>
       <c r="K238" s="20" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="239" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A239" s="23"/>
       <c r="B239" s="20" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C239" s="13"/>
       <c r="D239" s="39">
@@ -7156,7 +7145,7 @@
         <v>40664</v>
       </c>
       <c r="B241" s="20" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C241" s="13">
         <v>1.25</v>
@@ -7180,7 +7169,7 @@
     <row r="242" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A242" s="23"/>
       <c r="B242" s="20" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C242" s="13"/>
       <c r="D242" s="39">
@@ -7200,7 +7189,7 @@
         <v>40695</v>
       </c>
       <c r="B243" s="20" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="C243" s="13">
         <v>1.25</v>
@@ -7225,7 +7214,7 @@
         <v>40725</v>
       </c>
       <c r="B244" s="20" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C244" s="13">
         <v>1.25</v>
@@ -7249,7 +7238,7 @@
     <row r="245" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A245" s="23"/>
       <c r="B245" s="20" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="C245" s="13"/>
       <c r="D245" s="39">
@@ -7269,7 +7258,7 @@
         <v>40756</v>
       </c>
       <c r="B246" s="20" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C246" s="13">
         <v>1.25</v>
@@ -7294,7 +7283,7 @@
         <v>40787</v>
       </c>
       <c r="B247" s="20" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="C247" s="13">
         <v>1.25</v>
@@ -7312,13 +7301,13 @@
       <c r="I247" s="13"/>
       <c r="J247" s="11"/>
       <c r="K247" s="20" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
     </row>
     <row r="248" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A248" s="23"/>
       <c r="B248" s="20" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C248" s="13"/>
       <c r="D248" s="39"/>
@@ -7337,7 +7326,7 @@
     <row r="249" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A249" s="23"/>
       <c r="B249" s="20" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C249" s="13"/>
       <c r="D249" s="39">
@@ -7357,7 +7346,7 @@
         <v>40817</v>
       </c>
       <c r="B250" s="20" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C250" s="13">
         <v>1.25</v>
@@ -7382,7 +7371,7 @@
         <v>40848</v>
       </c>
       <c r="B251" s="20" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C251" s="13">
         <v>1.25</v>
@@ -7406,7 +7395,7 @@
     <row r="252" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A252" s="23"/>
       <c r="B252" s="20" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C252" s="13"/>
       <c r="D252" s="39"/>
@@ -7425,7 +7414,7 @@
     <row r="253" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A253" s="23"/>
       <c r="B253" s="20" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="C253" s="13"/>
       <c r="D253" s="39">
@@ -7445,7 +7434,7 @@
         <v>40878</v>
       </c>
       <c r="B254" s="20" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C254" s="13">
         <v>1.25</v>
@@ -7463,13 +7452,13 @@
       <c r="I254" s="13"/>
       <c r="J254" s="11"/>
       <c r="K254" s="20" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
     </row>
     <row r="255" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A255" s="23"/>
       <c r="B255" s="20" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C255" s="13"/>
       <c r="D255" s="39">
@@ -7488,7 +7477,7 @@
     </row>
     <row r="256" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A256" s="48" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B256" s="20"/>
       <c r="C256" s="13"/>
@@ -7510,7 +7499,7 @@
         <v>40909</v>
       </c>
       <c r="B257" s="20" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C257" s="13">
         <v>1.25</v>
@@ -7528,13 +7517,13 @@
       <c r="I257" s="13"/>
       <c r="J257" s="11"/>
       <c r="K257" s="20" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
     </row>
     <row r="258" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A258" s="23"/>
       <c r="B258" s="20" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="C258" s="13"/>
       <c r="D258" s="39">
@@ -7554,7 +7543,7 @@
         <v>40940</v>
       </c>
       <c r="B259" s="20" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="C259" s="13">
         <v>1.25</v>
@@ -7579,7 +7568,7 @@
         <v>40969</v>
       </c>
       <c r="B260" s="20" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C260" s="13">
         <v>1.25</v>
@@ -7606,7 +7595,7 @@
         <v>41000</v>
       </c>
       <c r="B261" s="20" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C261" s="13">
         <v>1.25</v>
@@ -7622,13 +7611,13 @@
       <c r="I261" s="13"/>
       <c r="J261" s="11"/>
       <c r="K261" s="20" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
     </row>
     <row r="262" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A262" s="23"/>
       <c r="B262" s="20" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C262" s="13"/>
       <c r="D262" s="39">
@@ -7648,7 +7637,7 @@
         <v>41030</v>
       </c>
       <c r="B263" s="20" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="C263" s="13">
         <v>1.25</v>
@@ -7673,7 +7662,7 @@
         <v>41061</v>
       </c>
       <c r="B264" s="20" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C264" s="13">
         <v>1.25</v>
@@ -7697,7 +7686,7 @@
     <row r="265" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A265" s="23"/>
       <c r="B265" s="20" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C265" s="13"/>
       <c r="D265" s="39"/>
@@ -7716,7 +7705,7 @@
     <row r="266" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A266" s="23"/>
       <c r="B266" s="20" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="C266" s="13"/>
       <c r="D266" s="39">
@@ -7736,7 +7725,7 @@
         <v>41091</v>
       </c>
       <c r="B267" s="20" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C267" s="13">
         <v>1.25</v>
@@ -7760,7 +7749,7 @@
     <row r="268" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A268" s="23"/>
       <c r="B268" s="20" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C268" s="13"/>
       <c r="D268" s="39"/>
@@ -7779,7 +7768,7 @@
     <row r="269" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A269" s="23"/>
       <c r="B269" s="20" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="C269" s="13"/>
       <c r="D269" s="39">
@@ -7799,7 +7788,7 @@
         <v>41122</v>
       </c>
       <c r="B270" s="20" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="C270" s="13">
         <v>1.25</v>
@@ -7824,7 +7813,7 @@
         <v>41153</v>
       </c>
       <c r="B271" s="20" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="C271" s="13">
         <v>1.25</v>
@@ -7849,7 +7838,7 @@
         <v>41183</v>
       </c>
       <c r="B272" s="20" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="C272" s="13">
         <v>1.25</v>
@@ -7865,13 +7854,13 @@
       <c r="I272" s="13"/>
       <c r="J272" s="11"/>
       <c r="K272" s="20" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
     </row>
     <row r="273" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A273" s="23"/>
       <c r="B273" s="20" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="C273" s="13"/>
       <c r="D273" s="39">
@@ -7891,7 +7880,7 @@
         <v>41214</v>
       </c>
       <c r="B274" s="20" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C274" s="13">
         <v>1.25</v>
@@ -7909,13 +7898,13 @@
       <c r="I274" s="13"/>
       <c r="J274" s="11"/>
       <c r="K274" s="20" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
     </row>
     <row r="275" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A275" s="23"/>
       <c r="B275" s="20" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="C275" s="13"/>
       <c r="D275" s="39">
@@ -7935,7 +7924,7 @@
         <v>41244</v>
       </c>
       <c r="B276" s="20" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="C276" s="13">
         <v>1.25</v>
@@ -7956,7 +7945,7 @@
     </row>
     <row r="277" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A277" s="48" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="B277" s="20"/>
       <c r="C277" s="13"/>
@@ -7978,7 +7967,7 @@
         <v>41275</v>
       </c>
       <c r="B278" s="20" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C278" s="13">
         <v>1.25</v>
@@ -7996,13 +7985,13 @@
       <c r="I278" s="13"/>
       <c r="J278" s="11"/>
       <c r="K278" s="20" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
     </row>
     <row r="279" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A279" s="23"/>
       <c r="B279" s="20" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="C279" s="13"/>
       <c r="D279" s="39">
@@ -8022,7 +8011,7 @@
         <v>41306</v>
       </c>
       <c r="B280" s="20" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C280" s="13">
         <v>1.25</v>
@@ -8047,7 +8036,7 @@
         <v>41334</v>
       </c>
       <c r="B281" s="20" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C281" s="13">
         <v>1.25</v>
@@ -8063,13 +8052,13 @@
       <c r="I281" s="13"/>
       <c r="J281" s="11"/>
       <c r="K281" s="20" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="282" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A282" s="23"/>
       <c r="B282" s="20" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="C282" s="13"/>
       <c r="D282" s="39">
@@ -8089,7 +8078,7 @@
         <v>41365</v>
       </c>
       <c r="B283" s="20" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C283" s="13">
         <v>1.25</v>
@@ -8114,7 +8103,7 @@
         <v>41395</v>
       </c>
       <c r="B284" s="20" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C284" s="13">
         <v>1.25</v>
@@ -8130,13 +8119,13 @@
       <c r="I284" s="13"/>
       <c r="J284" s="11"/>
       <c r="K284" s="20" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
     </row>
     <row r="285" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A285" s="23"/>
       <c r="B285" s="20" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="C285" s="13"/>
       <c r="D285" s="39">
@@ -8156,7 +8145,7 @@
         <v>41426</v>
       </c>
       <c r="B286" s="20" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="C286" s="13">
         <v>1.25</v>
@@ -8181,7 +8170,7 @@
         <v>41456</v>
       </c>
       <c r="B287" s="20" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C287" s="13">
         <v>1.25</v>
@@ -8205,7 +8194,7 @@
     <row r="288" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A288" s="23"/>
       <c r="B288" s="20" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="C288" s="13"/>
       <c r="D288" s="39">
@@ -8225,7 +8214,7 @@
         <v>41487</v>
       </c>
       <c r="B289" s="20" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C289" s="13">
         <v>1.25</v>
@@ -8252,7 +8241,7 @@
         <v>41518</v>
       </c>
       <c r="B290" s="20" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="C290" s="13">
         <v>1.25</v>
@@ -8277,7 +8266,7 @@
         <v>41548</v>
       </c>
       <c r="B291" s="20" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="C291" s="13">
         <v>1.25</v>
@@ -8302,7 +8291,7 @@
         <v>41579</v>
       </c>
       <c r="B292" s="20" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="C292" s="13">
         <v>1.25</v>
@@ -8327,7 +8316,7 @@
         <v>41609</v>
       </c>
       <c r="B293" s="20" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C293" s="13">
         <v>1.25</v>
@@ -8345,13 +8334,13 @@
       <c r="I293" s="13"/>
       <c r="J293" s="11"/>
       <c r="K293" s="20" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="294" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A294" s="23"/>
       <c r="B294" s="20" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="C294" s="13"/>
       <c r="D294" s="39">
@@ -8370,7 +8359,7 @@
     </row>
     <row r="295" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A295" s="48" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="B295" s="20"/>
       <c r="C295" s="13"/>
@@ -8392,7 +8381,7 @@
         <v>41640</v>
       </c>
       <c r="B296" s="20" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C296" s="13">
         <v>1.25</v>
@@ -8414,7 +8403,7 @@
     <row r="297" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A297" s="23"/>
       <c r="B297" s="20" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C297" s="13"/>
       <c r="D297" s="39"/>
@@ -8433,7 +8422,7 @@
     <row r="298" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A298" s="23"/>
       <c r="B298" s="20" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C298" s="13"/>
       <c r="D298" s="39"/>
@@ -8450,7 +8439,7 @@
     <row r="299" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A299" s="23"/>
       <c r="B299" s="20" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="C299" s="13"/>
       <c r="D299" s="39">
@@ -8470,7 +8459,7 @@
         <v>41671</v>
       </c>
       <c r="B300" s="20" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C300" s="13">
         <v>1.25</v>
@@ -8492,7 +8481,7 @@
     <row r="301" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A301" s="23"/>
       <c r="B301" s="20" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="C301" s="13"/>
       <c r="D301" s="39">
@@ -8512,7 +8501,7 @@
         <v>41699</v>
       </c>
       <c r="B302" s="20" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="C302" s="13">
         <v>1.25</v>
@@ -8537,7 +8526,7 @@
         <v>41730</v>
       </c>
       <c r="B303" s="20" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C303" s="13">
         <v>1.25</v>
@@ -8553,13 +8542,13 @@
       <c r="I303" s="13"/>
       <c r="J303" s="11"/>
       <c r="K303" s="20" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
     </row>
     <row r="304" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A304" s="23"/>
       <c r="B304" s="20" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C304" s="13"/>
       <c r="D304" s="39"/>
@@ -8578,7 +8567,7 @@
     <row r="305" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A305" s="23"/>
       <c r="B305" s="20" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="C305" s="13"/>
       <c r="D305" s="39">
@@ -8598,7 +8587,7 @@
         <v>41760</v>
       </c>
       <c r="B306" s="20" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="C306" s="13">
         <v>1.25</v>
@@ -8623,7 +8612,7 @@
         <v>41791</v>
       </c>
       <c r="B307" s="20" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C307" s="13">
         <v>1.25</v>
@@ -8647,7 +8636,7 @@
     <row r="308" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A308" s="23"/>
       <c r="B308" s="20" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="C308" s="13"/>
       <c r="D308" s="39">
@@ -8667,7 +8656,7 @@
         <v>41821</v>
       </c>
       <c r="B309" s="20" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="C309" s="13">
         <v>1.25</v>
@@ -8692,7 +8681,7 @@
         <v>41852</v>
       </c>
       <c r="B310" s="20" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="C310" s="13">
         <v>1.25</v>
@@ -8717,7 +8706,7 @@
         <v>41883</v>
       </c>
       <c r="B311" s="20" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="C311" s="13">
         <v>1.25</v>
@@ -8742,7 +8731,7 @@
         <v>41913</v>
       </c>
       <c r="B312" s="20" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="C312" s="13">
         <v>1.25</v>
@@ -8767,7 +8756,7 @@
         <v>41944</v>
       </c>
       <c r="B313" s="20" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C313" s="13">
         <v>1.25</v>
@@ -8785,13 +8774,13 @@
       <c r="I313" s="13"/>
       <c r="J313" s="11"/>
       <c r="K313" s="20" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
     </row>
     <row r="314" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A314" s="23"/>
       <c r="B314" s="20" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="C314" s="13"/>
       <c r="D314" s="39">
@@ -8811,7 +8800,7 @@
         <v>41974</v>
       </c>
       <c r="B315" s="20" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C315" s="13">
         <v>1.25</v>
@@ -8832,7 +8821,7 @@
     </row>
     <row r="316" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A316" s="48" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="B316" s="20"/>
       <c r="C316" s="13"/>
@@ -8854,7 +8843,7 @@
         <v>42005</v>
       </c>
       <c r="B317" s="20" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C317" s="13">
         <v>1.25</v>
@@ -8878,7 +8867,7 @@
     <row r="318" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A318" s="23"/>
       <c r="B318" s="20" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C318" s="13"/>
       <c r="D318" s="39">
@@ -8898,7 +8887,7 @@
         <v>42036</v>
       </c>
       <c r="B319" s="20" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C319" s="13">
         <v>1.25</v>
@@ -8914,13 +8903,13 @@
       <c r="I319" s="13"/>
       <c r="J319" s="11"/>
       <c r="K319" s="20" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
     </row>
     <row r="320" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A320" s="23"/>
       <c r="B320" s="20" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C320" s="13"/>
       <c r="D320" s="39">
@@ -8940,7 +8929,7 @@
         <v>42064</v>
       </c>
       <c r="B321" s="20" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C321" s="13">
         <v>1.25</v>
@@ -8964,7 +8953,7 @@
     <row r="322" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A322" s="23"/>
       <c r="B322" s="20" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="C322" s="13"/>
       <c r="D322" s="39">
@@ -8984,7 +8973,7 @@
         <v>42095</v>
       </c>
       <c r="B323" s="20" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C323" s="13">
         <v>1.25</v>
@@ -9008,7 +8997,7 @@
     <row r="324" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A324" s="23"/>
       <c r="B324" s="20" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C324" s="13"/>
       <c r="D324" s="39"/>
@@ -9019,13 +9008,13 @@
       <c r="I324" s="13"/>
       <c r="J324" s="11"/>
       <c r="K324" s="20" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="325" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A325" s="23"/>
       <c r="B325" s="20" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="C325" s="13"/>
       <c r="D325" s="39">
@@ -9045,7 +9034,7 @@
         <v>42125</v>
       </c>
       <c r="B326" s="20" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C326" s="13">
         <v>1.25</v>
@@ -9069,7 +9058,7 @@
     <row r="327" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A327" s="23"/>
       <c r="B327" s="20" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="C327" s="13"/>
       <c r="D327" s="39">
@@ -9089,7 +9078,7 @@
         <v>42156</v>
       </c>
       <c r="B328" s="20" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C328" s="13">
         <v>1.25</v>
@@ -9114,7 +9103,7 @@
         <v>42186</v>
       </c>
       <c r="B329" s="20" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C329" s="13">
         <v>1.25</v>
@@ -9132,13 +9121,13 @@
       <c r="I329" s="13"/>
       <c r="J329" s="11"/>
       <c r="K329" s="20" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
     </row>
     <row r="330" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A330" s="23"/>
       <c r="B330" s="20" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C330" s="13"/>
       <c r="D330" s="39">
@@ -9158,7 +9147,7 @@
         <v>42217</v>
       </c>
       <c r="B331" s="20" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="C331" s="13">
         <v>1.25</v>
@@ -9183,7 +9172,7 @@
         <v>42248</v>
       </c>
       <c r="B332" s="20" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="C332" s="13">
         <v>1.25</v>
@@ -9208,7 +9197,7 @@
         <v>42278</v>
       </c>
       <c r="B333" s="20" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C333" s="13">
         <v>1.25</v>
@@ -9233,7 +9222,7 @@
         <v>42309</v>
       </c>
       <c r="B334" s="20" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C334" s="13">
         <v>1.25</v>
@@ -9251,13 +9240,13 @@
       <c r="I334" s="13"/>
       <c r="J334" s="11"/>
       <c r="K334" s="20" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
     </row>
     <row r="335" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A335" s="23"/>
       <c r="B335" s="20" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="C335" s="13"/>
       <c r="D335" s="39">
@@ -9277,7 +9266,7 @@
         <v>42339</v>
       </c>
       <c r="B336" s="20" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C336" s="13">
         <v>1.25</v>
@@ -9298,7 +9287,7 @@
     </row>
     <row r="337" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A337" s="48" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="B337" s="20"/>
       <c r="C337" s="13"/>
@@ -9320,7 +9309,7 @@
         <v>42370</v>
       </c>
       <c r="B338" s="20" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C338" s="13">
         <v>1.25</v>
@@ -9338,7 +9327,7 @@
       <c r="I338" s="13"/>
       <c r="J338" s="11"/>
       <c r="K338" s="20" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="339" spans="1:11" x14ac:dyDescent="0.3">
@@ -9347,7 +9336,7 @@
         <v>42401</v>
       </c>
       <c r="B339" s="20" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C339" s="13">
         <v>1.25</v>
@@ -9363,13 +9352,13 @@
       <c r="I339" s="13"/>
       <c r="J339" s="11"/>
       <c r="K339" s="20" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
     </row>
     <row r="340" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A340" s="23"/>
       <c r="B340" s="20" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C340" s="13"/>
       <c r="D340" s="39"/>
@@ -9391,7 +9380,7 @@
         <v>42430</v>
       </c>
       <c r="B341" s="20" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C341" s="13">
         <v>1.25</v>
@@ -9415,7 +9404,7 @@
     <row r="342" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A342" s="23"/>
       <c r="B342" s="20" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C342" s="13"/>
       <c r="D342" s="39"/>
@@ -9426,13 +9415,13 @@
       <c r="I342" s="13"/>
       <c r="J342" s="11"/>
       <c r="K342" s="20" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="343" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A343" s="23"/>
       <c r="B343" s="20" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C343" s="13"/>
       <c r="D343" s="39">
@@ -9475,7 +9464,7 @@
         <v>42491</v>
       </c>
       <c r="B345" s="20" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C345" s="13">
         <v>1.25</v>
@@ -9491,7 +9480,7 @@
       <c r="I345" s="13"/>
       <c r="J345" s="11"/>
       <c r="K345" s="20" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
     </row>
     <row r="346" spans="1:11" x14ac:dyDescent="0.3">
@@ -9542,7 +9531,7 @@
         <v>42583</v>
       </c>
       <c r="B348" s="20" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C348" s="13">
         <v>1.25</v>
@@ -9569,7 +9558,7 @@
         <v>42614</v>
       </c>
       <c r="B349" s="20" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C349" s="13">
         <v>1.25</v>
@@ -9587,7 +9576,7 @@
       <c r="I349" s="13"/>
       <c r="J349" s="11"/>
       <c r="K349" s="20" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
     </row>
     <row r="350" spans="1:11" x14ac:dyDescent="0.3">
@@ -9638,7 +9627,7 @@
         <v>42705</v>
       </c>
       <c r="B352" s="20" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C352" s="13">
         <v>1.25</v>
@@ -9661,7 +9650,7 @@
     </row>
     <row r="353" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A353" s="48" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="B353" s="20"/>
       <c r="C353" s="13"/>
@@ -9683,7 +9672,7 @@
         <v>42736</v>
       </c>
       <c r="B354" s="20" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C354" s="13">
         <v>1.25</v>
@@ -9707,7 +9696,7 @@
     <row r="355" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A355" s="23"/>
       <c r="B355" s="20" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C355" s="13"/>
       <c r="D355" s="39"/>
@@ -9726,7 +9715,7 @@
     <row r="356" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A356" s="23"/>
       <c r="B356" s="20" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C356" s="13"/>
       <c r="D356" s="39"/>
@@ -9739,13 +9728,13 @@
       <c r="I356" s="13"/>
       <c r="J356" s="11"/>
       <c r="K356" s="51" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
     </row>
     <row r="357" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A357" s="23"/>
       <c r="B357" s="20" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C357" s="13"/>
       <c r="D357" s="39"/>
@@ -9756,7 +9745,7 @@
       <c r="I357" s="13"/>
       <c r="J357" s="11"/>
       <c r="K357" s="20" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
     </row>
     <row r="358" spans="1:11" x14ac:dyDescent="0.3">
@@ -9786,7 +9775,7 @@
         <v>42795</v>
       </c>
       <c r="B359" s="20" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C359" s="13">
         <v>1.25</v>
@@ -9813,7 +9802,7 @@
         <v>42826</v>
       </c>
       <c r="B360" s="20" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C360" s="13">
         <v>1.25</v>
@@ -9829,13 +9818,13 @@
       <c r="I360" s="13"/>
       <c r="J360" s="11"/>
       <c r="K360" s="20" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
     </row>
     <row r="361" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A361" s="23"/>
       <c r="B361" s="20" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C361" s="13"/>
       <c r="D361" s="39"/>
@@ -9878,7 +9867,7 @@
         <v>42887</v>
       </c>
       <c r="B363" s="20" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C363" s="13">
         <v>1.25</v>
@@ -9894,7 +9883,7 @@
       <c r="I363" s="13"/>
       <c r="J363" s="11"/>
       <c r="K363" s="20" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
     </row>
     <row r="364" spans="1:11" x14ac:dyDescent="0.3">
@@ -9966,7 +9955,7 @@
         <v>43009</v>
       </c>
       <c r="B367" s="20" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C367" s="13">
         <v>1.25</v>
@@ -9984,13 +9973,13 @@
       <c r="I367" s="13"/>
       <c r="J367" s="11"/>
       <c r="K367" s="20" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
     </row>
     <row r="368" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A368" s="23"/>
       <c r="B368" s="20" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="C368" s="13"/>
       <c r="D368" s="39"/>
@@ -10003,7 +9992,7 @@
       <c r="I368" s="13"/>
       <c r="J368" s="11"/>
       <c r="K368" s="20" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="369" spans="1:11" x14ac:dyDescent="0.3">
@@ -10012,7 +10001,7 @@
         <v>43040</v>
       </c>
       <c r="B369" s="20" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C369" s="13">
         <v>1.25</v>
@@ -10039,7 +10028,7 @@
         <v>43070</v>
       </c>
       <c r="B370" s="20" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C370" s="13">
         <v>1.25</v>
@@ -10057,13 +10046,13 @@
       <c r="I370" s="13"/>
       <c r="J370" s="11"/>
       <c r="K370" s="20" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
     </row>
     <row r="371" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A371" s="23"/>
       <c r="B371" s="20" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C371" s="13"/>
       <c r="D371" s="39">
@@ -10171,7 +10160,7 @@
         <v>43191</v>
       </c>
       <c r="B376" s="20" t="s">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="C376" s="13">
         <v>1.25</v>
@@ -10189,13 +10178,13 @@
       <c r="I376" s="9"/>
       <c r="J376" s="11"/>
       <c r="K376" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="377" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A377" s="40"/>
       <c r="B377" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C377" s="13">
         <v>1.25</v>
@@ -10239,7 +10228,7 @@
         <v>43252</v>
       </c>
       <c r="B379" s="20" t="s">
-        <v>53</v>
+        <v>91</v>
       </c>
       <c r="C379" s="13">
         <v>1.25</v>
@@ -10257,13 +10246,13 @@
       <c r="I379" s="9"/>
       <c r="J379" s="11"/>
       <c r="K379" s="20" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="380" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A380" s="40"/>
       <c r="B380" s="20" t="s">
-        <v>53</v>
+        <v>91</v>
       </c>
       <c r="C380" s="13">
         <v>1.25</v>
@@ -10281,7 +10270,7 @@
       <c r="I380" s="9"/>
       <c r="J380" s="11"/>
       <c r="K380" s="20" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="381" spans="1:11" x14ac:dyDescent="0.3">
@@ -10329,7 +10318,7 @@
         <v>43344</v>
       </c>
       <c r="B383" s="20" t="s">
-        <v>53</v>
+        <v>91</v>
       </c>
       <c r="C383" s="13">
         <v>1.25</v>
@@ -10347,7 +10336,7 @@
       <c r="I383" s="9"/>
       <c r="J383" s="11"/>
       <c r="K383" s="20" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="384" spans="1:11" x14ac:dyDescent="0.3">
@@ -10355,7 +10344,7 @@
         <v>43374</v>
       </c>
       <c r="B384" s="20" t="s">
-        <v>57</v>
+        <v>140</v>
       </c>
       <c r="C384" s="13">
         <v>1.25</v>
@@ -10373,7 +10362,7 @@
       <c r="I384" s="9"/>
       <c r="J384" s="11"/>
       <c r="K384" s="20" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="385" spans="1:11" x14ac:dyDescent="0.3">
@@ -10401,7 +10390,7 @@
         <v>43435</v>
       </c>
       <c r="B386" s="20" t="s">
-        <v>59</v>
+        <v>164</v>
       </c>
       <c r="C386" s="13">
         <v>1.25</v>
@@ -10422,7 +10411,7 @@
     </row>
     <row r="387" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A387" s="48" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B387" s="20"/>
       <c r="C387" s="13"/>
@@ -10443,7 +10432,7 @@
         <v>43466</v>
       </c>
       <c r="B388" s="20" t="s">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="C388" s="13">
         <v>1.25</v>
@@ -10461,7 +10450,7 @@
       <c r="I388" s="9"/>
       <c r="J388" s="11"/>
       <c r="K388" s="20" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="389" spans="1:11" x14ac:dyDescent="0.3">
@@ -10469,7 +10458,7 @@
         <v>43497</v>
       </c>
       <c r="B389" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C389" s="13">
         <v>1.25</v>
@@ -10485,7 +10474,7 @@
       <c r="I389" s="9"/>
       <c r="J389" s="11"/>
       <c r="K389" s="20" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="390" spans="1:11" x14ac:dyDescent="0.3">
@@ -10493,7 +10482,7 @@
         <v>43525</v>
       </c>
       <c r="B390" s="20" t="s">
-        <v>53</v>
+        <v>91</v>
       </c>
       <c r="C390" s="13">
         <v>1.25</v>
@@ -10511,7 +10500,7 @@
       <c r="I390" s="9"/>
       <c r="J390" s="11"/>
       <c r="K390" s="20" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="391" spans="1:11" x14ac:dyDescent="0.3">
@@ -10539,7 +10528,7 @@
         <v>43586</v>
       </c>
       <c r="B392" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C392" s="13">
         <v>1.25</v>
@@ -10563,7 +10552,7 @@
         <v>43617</v>
       </c>
       <c r="B393" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C393" s="13">
         <v>1.25</v>
@@ -10579,7 +10568,7 @@
       <c r="I393" s="9"/>
       <c r="J393" s="11"/>
       <c r="K393" s="20" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="394" spans="1:11" x14ac:dyDescent="0.3">
@@ -10627,7 +10616,7 @@
         <v>43709</v>
       </c>
       <c r="B396" s="20" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C396" s="13">
         <v>1.25</v>
@@ -10653,7 +10642,7 @@
         <v>43739</v>
       </c>
       <c r="B397" s="20" t="s">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="C397" s="13">
         <v>1.25</v>
@@ -10671,7 +10660,7 @@
       <c r="I397" s="9"/>
       <c r="J397" s="11"/>
       <c r="K397" s="20" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="398" spans="1:11" x14ac:dyDescent="0.3">
@@ -10679,7 +10668,7 @@
         <v>43770</v>
       </c>
       <c r="B398" s="20" t="s">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="C398" s="13"/>
       <c r="D398" s="39"/>
@@ -10695,13 +10684,13 @@
       <c r="I398" s="9"/>
       <c r="J398" s="11"/>
       <c r="K398" s="20" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="399" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A399" s="40"/>
       <c r="B399" s="20" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C399" s="13">
         <v>1.25</v>
@@ -10719,13 +10708,13 @@
       <c r="I399" s="9"/>
       <c r="J399" s="11"/>
       <c r="K399" s="20" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="400" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A400" s="40"/>
       <c r="B400" s="20" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C400" s="13"/>
       <c r="D400" s="39">
@@ -10741,7 +10730,7 @@
       <c r="I400" s="9"/>
       <c r="J400" s="11"/>
       <c r="K400" s="20" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="401" spans="1:11" x14ac:dyDescent="0.3">
@@ -10766,7 +10755,7 @@
     </row>
     <row r="402" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A402" s="48" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B402" s="20"/>
       <c r="C402" s="13"/>
@@ -10787,7 +10776,7 @@
         <v>43831</v>
       </c>
       <c r="B403" s="20" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C403" s="13">
         <v>1.25</v>
@@ -10803,7 +10792,7 @@
       <c r="I403" s="9"/>
       <c r="J403" s="11"/>
       <c r="K403" s="20" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="404" spans="1:11" x14ac:dyDescent="0.3">
@@ -10871,7 +10860,7 @@
         <v>43952</v>
       </c>
       <c r="B407" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C407" s="13">
         <v>1.25</v>
@@ -10895,7 +10884,7 @@
         <v>43983</v>
       </c>
       <c r="B408" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C408" s="13">
         <v>1.25</v>
@@ -10919,7 +10908,7 @@
         <v>44013</v>
       </c>
       <c r="B409" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C409" s="13">
         <v>1.25</v>
@@ -10935,7 +10924,7 @@
       <c r="I409" s="9"/>
       <c r="J409" s="11"/>
       <c r="K409" s="20" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="410" spans="1:11" x14ac:dyDescent="0.3">
@@ -11023,7 +11012,7 @@
         <v>44166</v>
       </c>
       <c r="B414" s="20" t="s">
-        <v>59</v>
+        <v>164</v>
       </c>
       <c r="C414" s="13">
         <v>1.25</v>
@@ -11044,7 +11033,7 @@
     </row>
     <row r="415" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A415" s="48" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B415" s="20"/>
       <c r="C415" s="13"/>
@@ -11165,7 +11154,7 @@
         <v>44348</v>
       </c>
       <c r="B421" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C421" s="13">
         <v>1.25</v>
@@ -11229,7 +11218,7 @@
         <v>44440</v>
       </c>
       <c r="B424" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C424" s="13">
         <v>1.25</v>
@@ -11253,7 +11242,7 @@
         <v>44470</v>
       </c>
       <c r="B425" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C425" s="13">
         <v>1.25</v>
@@ -11269,7 +11258,7 @@
       <c r="I425" s="9"/>
       <c r="J425" s="11"/>
       <c r="K425" s="20" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="426" spans="1:11" x14ac:dyDescent="0.3">
@@ -11277,7 +11266,7 @@
         <v>44501</v>
       </c>
       <c r="B426" s="20" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C426" s="13">
         <v>1.25</v>
@@ -11295,13 +11284,13 @@
       <c r="I426" s="9"/>
       <c r="J426" s="11"/>
       <c r="K426" s="20" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="427" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A427" s="40"/>
       <c r="B427" s="20" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C427" s="13"/>
       <c r="D427" s="39">
@@ -11317,7 +11306,7 @@
       <c r="I427" s="9"/>
       <c r="J427" s="11"/>
       <c r="K427" s="20" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="428" spans="1:11" x14ac:dyDescent="0.3">
@@ -11358,7 +11347,7 @@
     </row>
     <row r="430" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A430" s="48" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B430" s="20"/>
       <c r="C430" s="13"/>
@@ -11419,7 +11408,7 @@
         <v>44621</v>
       </c>
       <c r="B433" s="20" t="s">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="C433" s="13">
         <v>1.25</v>
@@ -11465,7 +11454,7 @@
         <v>44682</v>
       </c>
       <c r="B435" s="20" t="s">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="C435" s="13">
         <v>1.25</v>
@@ -11483,7 +11472,7 @@
       <c r="I435" s="9"/>
       <c r="J435" s="11"/>
       <c r="K435" s="20" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="436" spans="1:11" x14ac:dyDescent="0.3">
@@ -11491,7 +11480,7 @@
         <v>44713</v>
       </c>
       <c r="B436" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C436" s="13">
         <v>1.25</v>
@@ -11507,13 +11496,13 @@
       <c r="I436" s="9"/>
       <c r="J436" s="11"/>
       <c r="K436" s="20" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="437" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A437" s="40"/>
       <c r="B437" s="20" t="s">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="C437" s="13"/>
       <c r="D437" s="39"/>
@@ -11529,7 +11518,7 @@
       <c r="I437" s="9"/>
       <c r="J437" s="11"/>
       <c r="K437" s="20" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="438" spans="1:11" x14ac:dyDescent="0.3">
@@ -11577,7 +11566,7 @@
         <v>44805</v>
       </c>
       <c r="B440" s="20" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C440" s="13">
         <v>1.25</v>
@@ -11623,7 +11612,7 @@
         <v>44866</v>
       </c>
       <c r="B442" s="20" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C442" s="13">
         <v>1.25</v>
@@ -11649,7 +11638,7 @@
         <v>44896</v>
       </c>
       <c r="B443" s="20" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C443" s="13">
         <v>1.25</v>
@@ -11672,7 +11661,7 @@
     </row>
     <row r="444" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A444" s="48" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B444" s="20"/>
       <c r="C444" s="13"/>
@@ -11693,7 +11682,7 @@
         <v>44927</v>
       </c>
       <c r="B445" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C445" s="13">
         <v>1.25</v>

--- a/REGULAR/OJT/NEW DONE/UNTALAN, DIVINA R..xlsx
+++ b/REGULAR/OJT/NEW DONE/UNTALAN, DIVINA R..xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\NEW DONE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AE53195-9B31-41A8-85DF-E3C3F0130C09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FD23C8A-892B-4EC7-BFEF-B88CA17F091E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="1428" yWindow="1428" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="276">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1895,9 +1895,9 @@
   <dimension ref="A2:K492"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
-      <pane ySplit="3612" topLeftCell="A127"/>
+      <pane ySplit="3612" topLeftCell="A438" activePane="bottomLeft"/>
       <selection activeCell="I9" sqref="I9"/>
-      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
+      <selection pane="bottomLeft" activeCell="B449" sqref="B449"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2062,7 +2062,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>199.57200000000003</v>
+        <v>200.82200000000003</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -2072,7 +2072,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>248.29200000000003</v>
+        <v>249.54200000000003</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -11726,13 +11726,15 @@
         <v>44986</v>
       </c>
       <c r="B447" s="20"/>
-      <c r="C447" s="13"/>
+      <c r="C447" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D447" s="39"/>
       <c r="E447" s="9"/>
       <c r="F447" s="20"/>
-      <c r="G447" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G447" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H447" s="39"/>
       <c r="I447" s="9"/>
@@ -11743,7 +11745,9 @@
       <c r="A448" s="40">
         <v>45017</v>
       </c>
-      <c r="B448" s="20"/>
+      <c r="B448" s="20" t="s">
+        <v>126</v>
+      </c>
       <c r="C448" s="13"/>
       <c r="D448" s="39"/>
       <c r="E448" s="9"/>
@@ -11755,7 +11759,9 @@
       <c r="H448" s="39"/>
       <c r="I448" s="9"/>
       <c r="J448" s="11"/>
-      <c r="K448" s="20"/>
+      <c r="K448" s="49">
+        <v>45050</v>
+      </c>
     </row>
     <row r="449" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A449" s="40">

--- a/REGULAR/OJT/NEW DONE/UNTALAN, DIVINA R..xlsx
+++ b/REGULAR/OJT/NEW DONE/UNTALAN, DIVINA R..xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\NEW DONE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FD23C8A-892B-4EC7-BFEF-B88CA17F091E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52F68D5D-A180-4112-91ED-91DCD4F00CDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1895,9 +1895,9 @@
   <dimension ref="A2:K492"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
-      <pane ySplit="3612" topLeftCell="A438" activePane="bottomLeft"/>
+      <pane ySplit="3612" activePane="bottomLeft"/>
       <selection activeCell="I9" sqref="I9"/>
-      <selection pane="bottomLeft" activeCell="B449" sqref="B449"/>
+      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/REGULAR/OJT/NEW DONE/UNTALAN, DIVINA R..xlsx
+++ b/REGULAR/OJT/NEW DONE/UNTALAN, DIVINA R..xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\NEW DONE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\NEW DONE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52F68D5D-A180-4112-91ED-91DCD4F00CDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +23,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="276">
   <si>
     <t>PERIOD</t>
   </si>
@@ -867,7 +866,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1562,26 +1561,26 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K492" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
-  <autoFilter ref="A8:K492" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K492" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+  <autoFilter ref="A8:K492"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1888,34 +1887,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K492"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
-      <pane ySplit="3612" activePane="bottomLeft"/>
+      <pane ySplit="3615" topLeftCell="A436" activePane="bottomLeft"/>
       <selection activeCell="I9" sqref="I9"/>
-      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
+      <selection pane="bottomLeft" activeCell="K451" sqref="K451"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -1938,7 +1937,7 @@
       <c r="J2" s="55"/>
       <c r="K2" s="56"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -1960,7 +1959,7 @@
       <c r="J3" s="57"/>
       <c r="K3" s="58"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -1980,7 +1979,7 @@
       <c r="J4" s="55"/>
       <c r="K4" s="56"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -1988,7 +1987,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -2001,7 +2000,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="53" t="s">
@@ -2018,7 +2017,7 @@
       <c r="J7" s="53"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -2053,7 +2052,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -2062,7 +2061,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>200.82200000000003</v>
+        <v>203.32200000000003</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -2072,12 +2071,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>249.54200000000003</v>
+        <v>252.04200000000003</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="48" t="s">
         <v>83</v>
       </c>
@@ -2092,7 +2091,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="23">
         <v>35520</v>
       </c>
@@ -2112,7 +2111,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="23">
         <v>35521</v>
       </c>
@@ -2132,7 +2131,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="23">
         <f>EDATE(A12,1)</f>
         <v>35551</v>
@@ -2153,7 +2152,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="23">
         <f>EDATE(A13,1)</f>
         <v>35582</v>
@@ -2174,7 +2173,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="23">
         <f t="shared" ref="A15:A19" si="0">EDATE(A14,1)</f>
         <v>35612</v>
@@ -2195,7 +2194,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="23">
         <f t="shared" si="0"/>
         <v>35643</v>
@@ -2216,7 +2215,7 @@
       <c r="J16" s="11"/>
       <c r="K16" s="20"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="23">
         <f t="shared" si="0"/>
         <v>35674</v>
@@ -2237,7 +2236,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="23">
         <f t="shared" si="0"/>
         <v>35704</v>
@@ -2258,7 +2257,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="23">
         <f t="shared" si="0"/>
         <v>35735</v>
@@ -2279,7 +2278,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="23">
         <f>EDATE(A19,1)</f>
         <v>35765</v>
@@ -2300,7 +2299,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="48" t="s">
         <v>84</v>
       </c>
@@ -2318,7 +2317,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="23">
         <f>EDATE(A20,1)</f>
         <v>35796</v>
@@ -2339,7 +2338,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="23">
         <f>EDATE(A22,1)</f>
         <v>35827</v>
@@ -2360,7 +2359,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="23">
         <f t="shared" ref="A24:A34" si="1">EDATE(A23,1)</f>
         <v>35855</v>
@@ -2381,7 +2380,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="23">
         <f t="shared" si="1"/>
         <v>35886</v>
@@ -2408,7 +2407,7 @@
         <v>45031</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="23"/>
       <c r="B26" s="20" t="s">
         <v>87</v>
@@ -2425,7 +2424,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="51"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="23">
         <f>EDATE(A25,1)</f>
         <v>35916</v>
@@ -2450,7 +2449,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="23">
         <f t="shared" si="1"/>
         <v>35947</v>
@@ -2471,7 +2470,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="23">
         <f t="shared" si="1"/>
         <v>35977</v>
@@ -2492,7 +2491,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="23">
         <f t="shared" si="1"/>
         <v>36008</v>
@@ -2513,7 +2512,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="23">
         <f t="shared" si="1"/>
         <v>36039</v>
@@ -2534,7 +2533,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="23">
         <f t="shared" si="1"/>
         <v>36069</v>
@@ -2555,7 +2554,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="23">
         <f t="shared" si="1"/>
         <v>36100</v>
@@ -2576,7 +2575,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="23">
         <f t="shared" si="1"/>
         <v>36130</v>
@@ -2603,7 +2602,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="48" t="s">
         <v>85</v>
       </c>
@@ -2621,7 +2620,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="23">
         <f>EDATE(A34,1)</f>
         <v>36161</v>
@@ -2642,7 +2641,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="23">
         <f>EDATE(A36,1)</f>
         <v>36192</v>
@@ -2663,7 +2662,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="23">
         <f t="shared" ref="A38:A46" si="2">EDATE(A37,1)</f>
         <v>36220</v>
@@ -2684,7 +2683,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="23">
         <f t="shared" si="2"/>
         <v>36251</v>
@@ -2711,7 +2710,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="23">
         <f t="shared" si="2"/>
         <v>36281</v>
@@ -2734,7 +2733,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="23">
         <f t="shared" si="2"/>
         <v>36312</v>
@@ -2755,7 +2754,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="23">
         <f t="shared" si="2"/>
         <v>36342</v>
@@ -2776,7 +2775,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="23">
         <f t="shared" si="2"/>
         <v>36373</v>
@@ -2797,7 +2796,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="23">
         <f t="shared" si="2"/>
         <v>36404</v>
@@ -2822,7 +2821,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="23">
         <f t="shared" si="2"/>
         <v>36434</v>
@@ -2849,7 +2848,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="23">
         <f t="shared" si="2"/>
         <v>36465</v>
@@ -2876,7 +2875,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="23"/>
       <c r="B47" s="20" t="s">
         <v>99</v>
@@ -2893,7 +2892,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="23">
         <f>EDATE(A46,1)</f>
         <v>36495</v>
@@ -2920,7 +2919,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="23"/>
       <c r="B49" s="20" t="s">
         <v>101</v>
@@ -2940,7 +2939,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="23"/>
       <c r="B50" s="20" t="s">
         <v>81</v>
@@ -2960,7 +2959,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="48" t="s">
         <v>102</v>
       </c>
@@ -2978,7 +2977,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="23">
         <f>EDATE(A48,1)</f>
         <v>36526</v>
@@ -3003,7 +3002,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="23">
         <f>EDATE(A52,1)</f>
         <v>36557</v>
@@ -3024,7 +3023,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="23">
         <f t="shared" ref="A54:A63" si="3">EDATE(A53,1)</f>
         <v>36586</v>
@@ -3049,7 +3048,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="23">
         <f t="shared" si="3"/>
         <v>36617</v>
@@ -3070,7 +3069,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="23">
         <f t="shared" si="3"/>
         <v>36647</v>
@@ -3095,7 +3094,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="23">
         <f t="shared" si="3"/>
         <v>36678</v>
@@ -3120,7 +3119,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="23">
         <f t="shared" si="3"/>
         <v>36708</v>
@@ -3147,7 +3146,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="23">
         <f t="shared" si="3"/>
         <v>36739</v>
@@ -3172,7 +3171,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="23">
         <f t="shared" si="3"/>
         <v>36770</v>
@@ -3197,7 +3196,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="23">
         <f t="shared" si="3"/>
         <v>36800</v>
@@ -3222,7 +3221,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="23">
         <f t="shared" si="3"/>
         <v>36831</v>
@@ -3249,7 +3248,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="23">
         <f t="shared" si="3"/>
         <v>36861</v>
@@ -3274,7 +3273,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="48" t="s">
         <v>113</v>
       </c>
@@ -3292,7 +3291,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="23">
         <f>EDATE(A63,1)</f>
         <v>36892</v>
@@ -3317,7 +3316,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="23">
         <f>EDATE(A65,1)</f>
         <v>36923</v>
@@ -3342,7 +3341,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="23">
         <f t="shared" ref="A67:A78" si="4">EDATE(A66,1)</f>
         <v>36951</v>
@@ -3369,7 +3368,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="23"/>
       <c r="B68" s="20" t="s">
         <v>116</v>
@@ -3386,7 +3385,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="23">
         <f>EDATE(A67,1)</f>
         <v>36982</v>
@@ -3407,7 +3406,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="23">
         <f t="shared" si="4"/>
         <v>37012</v>
@@ -3432,7 +3431,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="23">
         <f t="shared" si="4"/>
         <v>37043</v>
@@ -3453,7 +3452,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="23">
         <f t="shared" si="4"/>
         <v>37073</v>
@@ -3474,7 +3473,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="23">
         <f t="shared" si="4"/>
         <v>37104</v>
@@ -3501,7 +3500,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="23"/>
       <c r="B74" s="20" t="s">
         <v>118</v>
@@ -3518,7 +3517,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="23">
         <f>EDATE(A73,1)</f>
         <v>37135</v>
@@ -3543,7 +3542,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="23">
         <f t="shared" si="4"/>
         <v>37165</v>
@@ -3564,7 +3563,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="23">
         <f t="shared" si="4"/>
         <v>37196</v>
@@ -3591,7 +3590,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="23">
         <f t="shared" si="4"/>
         <v>37226</v>
@@ -3612,7 +3611,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="48" t="s">
         <v>122</v>
       </c>
@@ -3630,7 +3629,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="23">
         <f>EDATE(A78,1)</f>
         <v>37257</v>
@@ -3651,7 +3650,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="23">
         <f>EDATE(A80,1)</f>
         <v>37288</v>
@@ -3672,7 +3671,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="23">
         <f t="shared" ref="A82:A91" si="5">EDATE(A81,1)</f>
         <v>37316</v>
@@ -3693,7 +3692,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="23">
         <f t="shared" si="5"/>
         <v>37347</v>
@@ -3714,7 +3713,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="23">
         <f t="shared" si="5"/>
         <v>37377</v>
@@ -3739,7 +3738,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="23">
         <f t="shared" si="5"/>
         <v>37408</v>
@@ -3764,7 +3763,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="23"/>
       <c r="B86" s="20" t="s">
         <v>126</v>
@@ -3781,7 +3780,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="23">
         <f>EDATE(A85,1)</f>
         <v>37438</v>
@@ -3802,7 +3801,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="23">
         <f t="shared" si="5"/>
         <v>37469</v>
@@ -3823,7 +3822,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="23">
         <f>EDATE(A88,1)</f>
         <v>37500</v>
@@ -3844,7 +3843,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="23">
         <f t="shared" si="5"/>
         <v>37530</v>
@@ -3871,7 +3870,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="23">
         <f t="shared" si="5"/>
         <v>37561</v>
@@ -3898,7 +3897,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="23"/>
       <c r="B92" s="20" t="s">
         <v>132</v>
@@ -3917,7 +3916,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="23">
         <f>EDATE(A91,1)</f>
         <v>37591</v>
@@ -3942,7 +3941,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="48" t="s">
         <v>123</v>
       </c>
@@ -3960,7 +3959,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="23">
         <f>EDATE(A93,1)</f>
         <v>37622</v>
@@ -3981,7 +3980,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="23">
         <f>EDATE(A95,1)</f>
         <v>37653</v>
@@ -4002,7 +4001,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="23">
         <f t="shared" ref="A97:A106" si="6">EDATE(A96,1)</f>
         <v>37681</v>
@@ -4023,7 +4022,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="23">
         <f t="shared" si="6"/>
         <v>37712</v>
@@ -4044,7 +4043,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="23">
         <f t="shared" si="6"/>
         <v>37742</v>
@@ -4065,7 +4064,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="23">
         <f t="shared" si="6"/>
         <v>37773</v>
@@ -4086,7 +4085,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="23">
         <f t="shared" si="6"/>
         <v>37803</v>
@@ -4107,7 +4106,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="23">
         <f t="shared" si="6"/>
         <v>37834</v>
@@ -4128,7 +4127,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="23">
         <f t="shared" si="6"/>
         <v>37865</v>
@@ -4149,7 +4148,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="23">
         <f t="shared" si="6"/>
         <v>37895</v>
@@ -4170,7 +4169,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="23">
         <f t="shared" si="6"/>
         <v>37926</v>
@@ -4191,7 +4190,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="23">
         <f t="shared" si="6"/>
         <v>37956</v>
@@ -4218,7 +4217,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="48" t="s">
         <v>124</v>
       </c>
@@ -4236,7 +4235,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="23">
         <f>EDATE(A106,1)</f>
         <v>37987</v>
@@ -4257,7 +4256,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="23">
         <f>EDATE(A108,1)</f>
         <v>38018</v>
@@ -4278,7 +4277,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="23">
         <f t="shared" ref="A110:A121" si="7">EDATE(A109,1)</f>
         <v>38047</v>
@@ -4305,7 +4304,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="23"/>
       <c r="B111" s="20" t="s">
         <v>126</v>
@@ -4322,7 +4321,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="23">
         <f>EDATE(A110,1)</f>
         <v>38078</v>
@@ -4343,7 +4342,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="23">
         <f t="shared" si="7"/>
         <v>38108</v>
@@ -4368,7 +4367,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="23">
         <f t="shared" si="7"/>
         <v>38139</v>
@@ -4389,7 +4388,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="23">
         <f t="shared" si="7"/>
         <v>38169</v>
@@ -4416,7 +4415,7 @@
         <v>45134</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="23">
         <f t="shared" si="7"/>
         <v>38200</v>
@@ -4443,7 +4442,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="23"/>
       <c r="B117" s="20" t="s">
         <v>139</v>
@@ -4460,7 +4459,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="23">
         <f>EDATE(A116,1)</f>
         <v>38231</v>
@@ -4487,7 +4486,7 @@
         <v>45170</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="23"/>
       <c r="B119" s="20" t="s">
         <v>140</v>
@@ -4506,7 +4505,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="23">
         <f>EDATE(A118,1)</f>
         <v>38261</v>
@@ -4527,7 +4526,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="23">
         <f t="shared" si="7"/>
         <v>38292</v>
@@ -4554,7 +4553,7 @@
         <v>45232</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="23"/>
       <c r="B122" s="20" t="s">
         <v>115</v>
@@ -4573,7 +4572,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="23"/>
       <c r="B123" s="20" t="s">
         <v>91</v>
@@ -4592,7 +4591,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="23"/>
       <c r="B124" s="20" t="s">
         <v>126</v>
@@ -4609,7 +4608,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="23"/>
       <c r="B125" s="20" t="s">
         <v>142</v>
@@ -4626,7 +4625,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="23">
         <f>EDATE(A121,1)</f>
         <v>38322</v>
@@ -4653,7 +4652,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="23"/>
       <c r="B127" s="20" t="s">
         <v>101</v>
@@ -4673,7 +4672,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="48" t="s">
         <v>148</v>
       </c>
@@ -4691,7 +4690,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="23">
         <f>EDATE(A126,1)</f>
         <v>38353</v>
@@ -4718,7 +4717,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="23"/>
       <c r="B130" s="20" t="s">
         <v>95</v>
@@ -4737,7 +4736,7 @@
         <v>44953</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="23"/>
       <c r="B131" s="20" t="s">
         <v>126</v>
@@ -4754,7 +4753,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="23"/>
       <c r="B132" s="20" t="s">
         <v>112</v>
@@ -4771,7 +4770,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="23">
         <f>EDATE(A129,1)</f>
         <v>38384</v>
@@ -4798,7 +4797,7 @@
         <v>44966</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="23"/>
       <c r="B134" s="20" t="s">
         <v>151</v>
@@ -4815,7 +4814,7 @@
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="23">
         <f>EDATE(A133,1)</f>
         <v>38412</v>
@@ -4842,7 +4841,7 @@
         <v>44994</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="23"/>
       <c r="B136" s="20" t="s">
         <v>91</v>
@@ -4861,7 +4860,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="23"/>
       <c r="B137" s="20" t="s">
         <v>152</v>
@@ -4878,7 +4877,7 @@
       <c r="J137" s="11"/>
       <c r="K137" s="20"/>
     </row>
-    <row r="138" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="23">
         <f>EDATE(A135,1)</f>
         <v>38443</v>
@@ -4903,7 +4902,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="23"/>
       <c r="B139" s="20" t="s">
         <v>95</v>
@@ -4922,7 +4921,7 @@
         <v>45045</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="23"/>
       <c r="B140" s="20" t="s">
         <v>88</v>
@@ -4941,7 +4940,7 @@
         <v>45058</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="23"/>
       <c r="B141" s="20" t="s">
         <v>153</v>
@@ -4958,7 +4957,7 @@
       <c r="J141" s="11"/>
       <c r="K141" s="20"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="23">
         <f>EDATE(A138,1)</f>
         <v>38473</v>
@@ -4985,7 +4984,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="23"/>
       <c r="B143" s="20" t="s">
         <v>154</v>
@@ -5002,7 +5001,7 @@
       <c r="J143" s="11"/>
       <c r="K143" s="20"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="23">
         <f>EDATE(A142,1)</f>
         <v>38504</v>
@@ -5027,7 +5026,7 @@
       <c r="J144" s="11"/>
       <c r="K144" s="20"/>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="23"/>
       <c r="B145" s="20" t="s">
         <v>155</v>
@@ -5044,7 +5043,7 @@
       <c r="J145" s="11"/>
       <c r="K145" s="20"/>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="23">
         <f>EDATE(A144,1)</f>
         <v>38534</v>
@@ -5069,7 +5068,7 @@
       <c r="J146" s="11"/>
       <c r="K146" s="20"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="23">
         <f t="shared" ref="A147:A150" si="8">EDATE(A146,1)</f>
         <v>38565</v>
@@ -5096,7 +5095,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="23"/>
       <c r="B148" s="20" t="s">
         <v>157</v>
@@ -5113,7 +5112,7 @@
       <c r="J148" s="11"/>
       <c r="K148" s="20"/>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="23">
         <f>EDATE(A147,1)</f>
         <v>38596</v>
@@ -5138,7 +5137,7 @@
       <c r="J149" s="11"/>
       <c r="K149" s="20"/>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="23">
         <f t="shared" si="8"/>
         <v>38626</v>
@@ -5163,7 +5162,7 @@
       <c r="J150" s="11"/>
       <c r="K150" s="20"/>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="23">
         <f>EDATE(A150,1)</f>
         <v>38657</v>
@@ -5190,7 +5189,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="23"/>
       <c r="B152" s="20" t="s">
         <v>166</v>
@@ -5207,7 +5206,7 @@
       <c r="J152" s="11"/>
       <c r="K152" s="20"/>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="23">
         <f>EDATE(A151,1)</f>
         <v>38687</v>
@@ -5232,7 +5231,7 @@
       <c r="J153" s="11"/>
       <c r="K153" s="20"/>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="48" t="s">
         <v>168</v>
       </c>
@@ -5250,7 +5249,7 @@
       <c r="J154" s="11"/>
       <c r="K154" s="20"/>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="23">
         <f>EDATE(A153,1)</f>
         <v>38718</v>
@@ -5275,7 +5274,7 @@
       <c r="J155" s="11"/>
       <c r="K155" s="20"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="23">
         <f>EDATE(A155,1)</f>
         <v>38749</v>
@@ -5296,7 +5295,7 @@
       <c r="J156" s="11"/>
       <c r="K156" s="20"/>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="23">
         <f t="shared" ref="A157:A166" si="9">EDATE(A156,1)</f>
         <v>38777</v>
@@ -5321,7 +5320,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="23">
         <f t="shared" si="9"/>
         <v>38808</v>
@@ -5342,7 +5341,7 @@
       <c r="J158" s="11"/>
       <c r="K158" s="20"/>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="23">
         <f t="shared" si="9"/>
         <v>38838</v>
@@ -5363,7 +5362,7 @@
       <c r="J159" s="11"/>
       <c r="K159" s="20"/>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="23">
         <f t="shared" si="9"/>
         <v>38869</v>
@@ -5388,7 +5387,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="23">
         <f t="shared" si="9"/>
         <v>38899</v>
@@ -5409,7 +5408,7 @@
       <c r="J161" s="11"/>
       <c r="K161" s="20"/>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="23">
         <f t="shared" si="9"/>
         <v>38930</v>
@@ -5430,7 +5429,7 @@
       <c r="J162" s="11"/>
       <c r="K162" s="20"/>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="23">
         <f t="shared" si="9"/>
         <v>38961</v>
@@ -5455,7 +5454,7 @@
       <c r="J163" s="11"/>
       <c r="K163" s="20"/>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="23">
         <f>EDATE(A163,1)</f>
         <v>38991</v>
@@ -5480,7 +5479,7 @@
       <c r="J164" s="11"/>
       <c r="K164" s="20"/>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="23">
         <f t="shared" si="9"/>
         <v>39022</v>
@@ -5501,7 +5500,7 @@
       <c r="J165" s="11"/>
       <c r="K165" s="20"/>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="23">
         <f t="shared" si="9"/>
         <v>39052</v>
@@ -5526,7 +5525,7 @@
       <c r="J166" s="11"/>
       <c r="K166" s="20"/>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="48" t="s">
         <v>171</v>
       </c>
@@ -5544,7 +5543,7 @@
       <c r="J167" s="11"/>
       <c r="K167" s="20"/>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="23">
         <f>EDATE(A166,1)</f>
         <v>39083</v>
@@ -5565,7 +5564,7 @@
       <c r="J168" s="11"/>
       <c r="K168" s="20"/>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="23">
         <f>EDATE(A168,1)</f>
         <v>39114</v>
@@ -5586,7 +5585,7 @@
       <c r="J169" s="11"/>
       <c r="K169" s="20"/>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="23">
         <f t="shared" ref="A170:A178" si="10">EDATE(A169,1)</f>
         <v>39142</v>
@@ -5607,7 +5606,7 @@
       <c r="J170" s="11"/>
       <c r="K170" s="20"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="23">
         <f t="shared" si="10"/>
         <v>39173</v>
@@ -5628,7 +5627,7 @@
       <c r="J171" s="11"/>
       <c r="K171" s="20"/>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="23">
         <f t="shared" si="10"/>
         <v>39203</v>
@@ -5649,7 +5648,7 @@
       <c r="J172" s="11"/>
       <c r="K172" s="20"/>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="23">
         <f t="shared" si="10"/>
         <v>39234</v>
@@ -5670,7 +5669,7 @@
       <c r="J173" s="11"/>
       <c r="K173" s="20"/>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="23">
         <f t="shared" si="10"/>
         <v>39264</v>
@@ -5691,7 +5690,7 @@
       <c r="J174" s="11"/>
       <c r="K174" s="20"/>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" s="23">
         <f t="shared" si="10"/>
         <v>39295</v>
@@ -5712,7 +5711,7 @@
       <c r="J175" s="11"/>
       <c r="K175" s="20"/>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="23">
         <f t="shared" si="10"/>
         <v>39326</v>
@@ -5733,7 +5732,7 @@
       <c r="J176" s="11"/>
       <c r="K176" s="20"/>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="23">
         <f t="shared" si="10"/>
         <v>39356</v>
@@ -5754,7 +5753,7 @@
       <c r="J177" s="11"/>
       <c r="K177" s="20"/>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" s="23">
         <f t="shared" si="10"/>
         <v>39387</v>
@@ -5781,7 +5780,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="23"/>
       <c r="B179" s="20" t="s">
         <v>164</v>
@@ -5800,7 +5799,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="23">
         <f>EDATE(A178,1)</f>
         <v>39417</v>
@@ -5821,7 +5820,7 @@
       <c r="J180" s="11"/>
       <c r="K180" s="20"/>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="48" t="s">
         <v>175</v>
       </c>
@@ -5839,7 +5838,7 @@
       <c r="J181" s="11"/>
       <c r="K181" s="20"/>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" s="23">
         <f>EDATE(A180,1)</f>
         <v>39448</v>
@@ -5860,7 +5859,7 @@
       <c r="J182" s="11"/>
       <c r="K182" s="20"/>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" s="23">
         <f>EDATE(A182,1)</f>
         <v>39479</v>
@@ -5881,7 +5880,7 @@
       <c r="J183" s="11"/>
       <c r="K183" s="20"/>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" s="23">
         <f t="shared" ref="A184:A193" si="11">EDATE(A183,1)</f>
         <v>39508</v>
@@ -5906,7 +5905,7 @@
         <v>45012</v>
       </c>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" s="23">
         <f t="shared" si="11"/>
         <v>39539</v>
@@ -5931,7 +5930,7 @@
         <v>45051</v>
       </c>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" s="23">
         <f t="shared" si="11"/>
         <v>39569</v>
@@ -5952,7 +5951,7 @@
       <c r="J186" s="11"/>
       <c r="K186" s="20"/>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" s="23">
         <f t="shared" si="11"/>
         <v>39600</v>
@@ -5973,7 +5972,7 @@
       <c r="J187" s="11"/>
       <c r="K187" s="20"/>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" s="23">
         <f t="shared" si="11"/>
         <v>39630</v>
@@ -5994,7 +5993,7 @@
       <c r="J188" s="11"/>
       <c r="K188" s="20"/>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" s="23">
         <f t="shared" si="11"/>
         <v>39661</v>
@@ -6019,7 +6018,7 @@
         <v>45152</v>
       </c>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" s="23"/>
       <c r="B190" s="20" t="s">
         <v>95</v>
@@ -6038,7 +6037,7 @@
         <v>45159</v>
       </c>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" s="23">
         <f>EDATE(A189,1)</f>
         <v>39692</v>
@@ -6063,7 +6062,7 @@
       <c r="J191" s="11"/>
       <c r="K191" s="20"/>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" s="23">
         <f t="shared" si="11"/>
         <v>39722</v>
@@ -6088,7 +6087,7 @@
       <c r="J192" s="11"/>
       <c r="K192" s="20"/>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" s="23">
         <f t="shared" si="11"/>
         <v>39753</v>
@@ -6113,7 +6112,7 @@
       <c r="J193" s="11"/>
       <c r="K193" s="20"/>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" s="23">
         <f>EDATE(A193,1)</f>
         <v>39783</v>
@@ -6138,7 +6137,7 @@
       <c r="J194" s="11"/>
       <c r="K194" s="20"/>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" s="23"/>
       <c r="B195" s="20" t="s">
         <v>179</v>
@@ -6158,7 +6157,7 @@
       <c r="J195" s="11"/>
       <c r="K195" s="20"/>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" s="48" t="s">
         <v>180</v>
       </c>
@@ -6176,7 +6175,7 @@
       <c r="J196" s="11"/>
       <c r="K196" s="20"/>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" s="23">
         <f>EDATE(A194,1)</f>
         <v>39814</v>
@@ -6203,7 +6202,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" s="23"/>
       <c r="B198" s="20" t="s">
         <v>182</v>
@@ -6220,7 +6219,7 @@
       <c r="J198" s="11"/>
       <c r="K198" s="20"/>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" s="23">
         <f>EDATE(A197,1)</f>
         <v>39845</v>
@@ -6241,7 +6240,7 @@
       <c r="J199" s="11"/>
       <c r="K199" s="20"/>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" s="23">
         <f t="shared" ref="A200:A209" si="12">EDATE(A199,1)</f>
         <v>39873</v>
@@ -6266,7 +6265,7 @@
         <v>45012</v>
       </c>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" s="23">
         <f t="shared" si="12"/>
         <v>39904</v>
@@ -6291,7 +6290,7 @@
         <v>45050</v>
       </c>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" s="23">
         <f t="shared" si="12"/>
         <v>39934</v>
@@ -6312,7 +6311,7 @@
       <c r="J202" s="11"/>
       <c r="K202" s="20"/>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" s="23">
         <f t="shared" si="12"/>
         <v>39965</v>
@@ -6333,7 +6332,7 @@
       <c r="J203" s="11"/>
       <c r="K203" s="20"/>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" s="23">
         <f t="shared" si="12"/>
         <v>39995</v>
@@ -6354,7 +6353,7 @@
       <c r="J204" s="11"/>
       <c r="K204" s="20"/>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" s="23">
         <f t="shared" si="12"/>
         <v>40026</v>
@@ -6375,7 +6374,7 @@
       <c r="J205" s="11"/>
       <c r="K205" s="20"/>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" s="23">
         <f t="shared" si="12"/>
         <v>40057</v>
@@ -6396,7 +6395,7 @@
       <c r="J206" s="11"/>
       <c r="K206" s="20"/>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" s="23">
         <f t="shared" si="12"/>
         <v>40087</v>
@@ -6417,7 +6416,7 @@
       <c r="J207" s="11"/>
       <c r="K207" s="20"/>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" s="23">
         <f>EDATE(A207,1)</f>
         <v>40118</v>
@@ -6438,7 +6437,7 @@
       <c r="J208" s="11"/>
       <c r="K208" s="20"/>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" s="23">
         <f t="shared" si="12"/>
         <v>40148</v>
@@ -6465,7 +6464,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210" s="23"/>
       <c r="B210" s="20" t="s">
         <v>164</v>
@@ -6485,7 +6484,7 @@
       <c r="J210" s="11"/>
       <c r="K210" s="20"/>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" s="48" t="s">
         <v>185</v>
       </c>
@@ -6503,7 +6502,7 @@
       <c r="J211" s="11"/>
       <c r="K211" s="20"/>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212" s="23">
         <f>EDATE(A209,1)</f>
         <v>40179</v>
@@ -6530,7 +6529,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213" s="23"/>
       <c r="B213" s="20" t="s">
         <v>126</v>
@@ -6547,7 +6546,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" s="23"/>
       <c r="B214" s="20" t="s">
         <v>187</v>
@@ -6564,7 +6563,7 @@
       <c r="J214" s="11"/>
       <c r="K214" s="20"/>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215" s="23">
         <f>EDATE(A212,1)</f>
         <v>40210</v>
@@ -6589,7 +6588,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216" s="23"/>
       <c r="B216" s="20" t="s">
         <v>191</v>
@@ -6606,7 +6605,7 @@
       <c r="J216" s="11"/>
       <c r="K216" s="20"/>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217" s="23">
         <f>EDATE(A215,1)</f>
         <v>40238</v>
@@ -6631,7 +6630,7 @@
       <c r="J217" s="11"/>
       <c r="K217" s="20"/>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218" s="23">
         <f t="shared" ref="A218:A230" si="13">EDATE(A217,1)</f>
         <v>40269</v>
@@ -6658,7 +6657,7 @@
         <v>45043</v>
       </c>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219" s="23"/>
       <c r="B219" s="20" t="s">
         <v>126</v>
@@ -6675,7 +6674,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220" s="23"/>
       <c r="B220" s="20" t="s">
         <v>193</v>
@@ -6692,7 +6691,7 @@
       <c r="J220" s="11"/>
       <c r="K220" s="20"/>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" s="23">
         <f>EDATE(A218,1)</f>
         <v>40299</v>
@@ -6719,7 +6718,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222" s="23"/>
       <c r="B222" s="20" t="s">
         <v>194</v>
@@ -6736,7 +6735,7 @@
       <c r="J222" s="11"/>
       <c r="K222" s="20"/>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223" s="23">
         <f>EDATE(A221,1)</f>
         <v>40330</v>
@@ -6761,7 +6760,7 @@
       <c r="J223" s="11"/>
       <c r="K223" s="20"/>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A224" s="23">
         <f t="shared" si="13"/>
         <v>40360</v>
@@ -6786,7 +6785,7 @@
       <c r="J224" s="11"/>
       <c r="K224" s="20"/>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225" s="23">
         <f t="shared" si="13"/>
         <v>40391</v>
@@ -6811,7 +6810,7 @@
       <c r="J225" s="11"/>
       <c r="K225" s="20"/>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226" s="23">
         <f t="shared" si="13"/>
         <v>40422</v>
@@ -6838,7 +6837,7 @@
         <v>45190</v>
       </c>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A227" s="23"/>
       <c r="B227" s="20" t="s">
         <v>196</v>
@@ -6855,7 +6854,7 @@
       <c r="J227" s="11"/>
       <c r="K227" s="20"/>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A228" s="23">
         <f>EDATE(A226,1)</f>
         <v>40452</v>
@@ -6880,7 +6879,7 @@
       <c r="J228" s="11"/>
       <c r="K228" s="20"/>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A229" s="23">
         <f t="shared" si="13"/>
         <v>40483</v>
@@ -6907,7 +6906,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A230" s="23">
         <f t="shared" si="13"/>
         <v>40513</v>
@@ -6932,7 +6931,7 @@
       <c r="J230" s="11"/>
       <c r="K230" s="20"/>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A231" s="48" t="s">
         <v>203</v>
       </c>
@@ -6950,7 +6949,7 @@
       <c r="J231" s="11"/>
       <c r="K231" s="20"/>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A232" s="23">
         <f>EDATE(A230,1)</f>
         <v>40544</v>
@@ -6977,7 +6976,7 @@
         <v>44929</v>
       </c>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A233" s="23"/>
       <c r="B233" s="20" t="s">
         <v>91</v>
@@ -6996,7 +6995,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A234" s="23"/>
       <c r="B234" s="20" t="s">
         <v>188</v>
@@ -7013,7 +7012,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A235" s="23">
         <f>EDATE(A232,1)</f>
         <v>40575</v>
@@ -7038,7 +7037,7 @@
       <c r="J235" s="11"/>
       <c r="K235" s="20"/>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A236" s="23">
         <f t="shared" ref="A236:A251" si="14">EDATE(A235,1)</f>
         <v>40603</v>
@@ -7065,7 +7064,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A237" s="23"/>
       <c r="B237" s="20" t="s">
         <v>95</v>
@@ -7084,7 +7083,7 @@
         <v>45009</v>
       </c>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A238" s="23"/>
       <c r="B238" s="20" t="s">
         <v>126</v>
@@ -7101,7 +7100,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A239" s="23"/>
       <c r="B239" s="20" t="s">
         <v>104</v>
@@ -7118,7 +7117,7 @@
       <c r="J239" s="11"/>
       <c r="K239" s="20"/>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A240" s="23">
         <f>EDATE(A236,1)</f>
         <v>40634</v>
@@ -7139,7 +7138,7 @@
       <c r="J240" s="11"/>
       <c r="K240" s="20"/>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A241" s="23">
         <f t="shared" si="14"/>
         <v>40664</v>
@@ -7166,7 +7165,7 @@
         <v>45049</v>
       </c>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A242" s="23"/>
       <c r="B242" s="20" t="s">
         <v>193</v>
@@ -7183,7 +7182,7 @@
       <c r="J242" s="11"/>
       <c r="K242" s="20"/>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A243" s="23">
         <f>EDATE(A241,1)</f>
         <v>40695</v>
@@ -7208,7 +7207,7 @@
       <c r="J243" s="11"/>
       <c r="K243" s="20"/>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A244" s="23">
         <f t="shared" si="14"/>
         <v>40725</v>
@@ -7235,7 +7234,7 @@
         <v>45133</v>
       </c>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A245" s="23"/>
       <c r="B245" s="20" t="s">
         <v>205</v>
@@ -7252,7 +7251,7 @@
       <c r="J245" s="11"/>
       <c r="K245" s="20"/>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A246" s="23">
         <f>EDATE(A244,1)</f>
         <v>40756</v>
@@ -7277,7 +7276,7 @@
       <c r="J246" s="11"/>
       <c r="K246" s="20"/>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A247" s="23">
         <f t="shared" si="14"/>
         <v>40787</v>
@@ -7304,7 +7303,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A248" s="23"/>
       <c r="B248" s="20" t="s">
         <v>95</v>
@@ -7323,7 +7322,7 @@
         <v>45184</v>
       </c>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A249" s="23"/>
       <c r="B249" s="20" t="s">
         <v>208</v>
@@ -7340,7 +7339,7 @@
       <c r="J249" s="11"/>
       <c r="K249" s="20"/>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A250" s="23">
         <f>EDATE(A247,1)</f>
         <v>40817</v>
@@ -7365,7 +7364,7 @@
       <c r="J250" s="11"/>
       <c r="K250" s="20"/>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A251" s="23">
         <f t="shared" si="14"/>
         <v>40848</v>
@@ -7392,7 +7391,7 @@
         <v>45233</v>
       </c>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A252" s="23"/>
       <c r="B252" s="20" t="s">
         <v>95</v>
@@ -7411,7 +7410,7 @@
         <v>45255</v>
       </c>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A253" s="23"/>
       <c r="B253" s="20" t="s">
         <v>195</v>
@@ -7428,7 +7427,7 @@
       <c r="J253" s="11"/>
       <c r="K253" s="20"/>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A254" s="23">
         <f>EDATE(A251,1)</f>
         <v>40878</v>
@@ -7455,7 +7454,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A255" s="23"/>
       <c r="B255" s="20" t="s">
         <v>213</v>
@@ -7475,7 +7474,7 @@
       <c r="J255" s="11"/>
       <c r="K255" s="20"/>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A256" s="48" t="s">
         <v>215</v>
       </c>
@@ -7493,7 +7492,7 @@
       <c r="J256" s="11"/>
       <c r="K256" s="20"/>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A257" s="23">
         <f>EDATE(A254,1)</f>
         <v>40909</v>
@@ -7520,7 +7519,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A258" s="23"/>
       <c r="B258" s="20" t="s">
         <v>216</v>
@@ -7537,7 +7536,7 @@
       <c r="J258" s="11"/>
       <c r="K258" s="20"/>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A259" s="23">
         <f>EDATE(A257,1)</f>
         <v>40940</v>
@@ -7562,7 +7561,7 @@
       <c r="J259" s="11"/>
       <c r="K259" s="20"/>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A260" s="23">
         <f t="shared" ref="A260:A272" si="15">EDATE(A259,1)</f>
         <v>40969</v>
@@ -7589,7 +7588,7 @@
         <v>44999</v>
       </c>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A261" s="23">
         <f t="shared" si="15"/>
         <v>41000</v>
@@ -7614,7 +7613,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A262" s="23"/>
       <c r="B262" s="20" t="s">
         <v>218</v>
@@ -7631,7 +7630,7 @@
       <c r="J262" s="11"/>
       <c r="K262" s="20"/>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A263" s="23">
         <f>EDATE(A261,1)</f>
         <v>41030</v>
@@ -7656,7 +7655,7 @@
       <c r="J263" s="11"/>
       <c r="K263" s="20"/>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A264" s="23">
         <f t="shared" si="15"/>
         <v>41061</v>
@@ -7683,7 +7682,7 @@
         <v>45082</v>
       </c>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A265" s="23"/>
       <c r="B265" s="20" t="s">
         <v>95</v>
@@ -7702,7 +7701,7 @@
         <v>45097</v>
       </c>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A266" s="23"/>
       <c r="B266" s="20" t="s">
         <v>220</v>
@@ -7719,7 +7718,7 @@
       <c r="J266" s="11"/>
       <c r="K266" s="20"/>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A267" s="23">
         <f>EDATE(A264,1)</f>
         <v>41091</v>
@@ -7746,7 +7745,7 @@
         <v>45120</v>
       </c>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A268" s="23"/>
       <c r="B268" s="20" t="s">
         <v>95</v>
@@ -7765,7 +7764,7 @@
         <v>45161</v>
       </c>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A269" s="23"/>
       <c r="B269" s="20" t="s">
         <v>221</v>
@@ -7782,7 +7781,7 @@
       <c r="J269" s="11"/>
       <c r="K269" s="20"/>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A270" s="23">
         <f>EDATE(A267,1)</f>
         <v>41122</v>
@@ -7807,7 +7806,7 @@
       <c r="J270" s="11"/>
       <c r="K270" s="20"/>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A271" s="23">
         <f t="shared" si="15"/>
         <v>41153</v>
@@ -7832,7 +7831,7 @@
       <c r="J271" s="11"/>
       <c r="K271" s="20"/>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A272" s="23">
         <f t="shared" si="15"/>
         <v>41183</v>
@@ -7857,7 +7856,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A273" s="23"/>
       <c r="B273" s="20" t="s">
         <v>204</v>
@@ -7874,7 +7873,7 @@
       <c r="J273" s="11"/>
       <c r="K273" s="20"/>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A274" s="23">
         <f>EDATE(A272,1)</f>
         <v>41214</v>
@@ -7901,7 +7900,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A275" s="23"/>
       <c r="B275" s="20" t="s">
         <v>223</v>
@@ -7918,7 +7917,7 @@
       <c r="J275" s="11"/>
       <c r="K275" s="20"/>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A276" s="23">
         <f>EDATE(A274,1)</f>
         <v>41244</v>
@@ -7943,7 +7942,7 @@
       <c r="J276" s="11"/>
       <c r="K276" s="20"/>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A277" s="48" t="s">
         <v>228</v>
       </c>
@@ -7961,7 +7960,7 @@
       <c r="J277" s="11"/>
       <c r="K277" s="20"/>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A278" s="23">
         <f>EDATE(A276,1)</f>
         <v>41275</v>
@@ -7988,7 +7987,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A279" s="23"/>
       <c r="B279" s="20" t="s">
         <v>229</v>
@@ -8005,7 +8004,7 @@
       <c r="J279" s="11"/>
       <c r="K279" s="20"/>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A280" s="23">
         <f>EDATE(A278,1)</f>
         <v>41306</v>
@@ -8030,7 +8029,7 @@
       <c r="J280" s="11"/>
       <c r="K280" s="20"/>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A281" s="23">
         <f t="shared" ref="A281:A292" si="16">EDATE(A280,1)</f>
         <v>41334</v>
@@ -8055,7 +8054,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A282" s="23"/>
       <c r="B282" s="20" t="s">
         <v>191</v>
@@ -8072,7 +8071,7 @@
       <c r="J282" s="11"/>
       <c r="K282" s="20"/>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A283" s="23">
         <f>EDATE(A281,1)</f>
         <v>41365</v>
@@ -8097,7 +8096,7 @@
       <c r="J283" s="11"/>
       <c r="K283" s="20"/>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A284" s="23">
         <f t="shared" si="16"/>
         <v>41395</v>
@@ -8122,7 +8121,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A285" s="23"/>
       <c r="B285" s="20" t="s">
         <v>231</v>
@@ -8139,7 +8138,7 @@
       <c r="J285" s="11"/>
       <c r="K285" s="20"/>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A286" s="23">
         <f>EDATE(A284,1)</f>
         <v>41426</v>
@@ -8164,7 +8163,7 @@
       <c r="J286" s="11"/>
       <c r="K286" s="20"/>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A287" s="23">
         <f t="shared" si="16"/>
         <v>41456</v>
@@ -8191,7 +8190,7 @@
         <v>45118</v>
       </c>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A288" s="23"/>
       <c r="B288" s="20" t="s">
         <v>233</v>
@@ -8208,7 +8207,7 @@
       <c r="J288" s="11"/>
       <c r="K288" s="20"/>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A289" s="23">
         <f>EDATE(A287,1)</f>
         <v>41487</v>
@@ -8235,7 +8234,7 @@
         <v>45140</v>
       </c>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A290" s="23">
         <f t="shared" si="16"/>
         <v>41518</v>
@@ -8260,7 +8259,7 @@
       <c r="J290" s="11"/>
       <c r="K290" s="20"/>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A291" s="23">
         <f t="shared" si="16"/>
         <v>41548</v>
@@ -8285,7 +8284,7 @@
       <c r="J291" s="11"/>
       <c r="K291" s="20"/>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A292" s="23">
         <f t="shared" si="16"/>
         <v>41579</v>
@@ -8310,7 +8309,7 @@
       <c r="J292" s="11"/>
       <c r="K292" s="20"/>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A293" s="23">
         <f>EDATE(A292,1)</f>
         <v>41609</v>
@@ -8337,7 +8336,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A294" s="23"/>
       <c r="B294" s="20" t="s">
         <v>238</v>
@@ -8357,7 +8356,7 @@
       <c r="J294" s="11"/>
       <c r="K294" s="20"/>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A295" s="48" t="s">
         <v>239</v>
       </c>
@@ -8375,7 +8374,7 @@
       <c r="J295" s="11"/>
       <c r="K295" s="20"/>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A296" s="23">
         <f>EDATE(A293,1)</f>
         <v>41640</v>
@@ -8400,7 +8399,7 @@
         <v>44943</v>
       </c>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A297" s="23"/>
       <c r="B297" s="20" t="s">
         <v>95</v>
@@ -8419,7 +8418,7 @@
         <v>44949</v>
       </c>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A298" s="23"/>
       <c r="B298" s="20" t="s">
         <v>126</v>
@@ -8436,7 +8435,7 @@
         <v>44960</v>
       </c>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A299" s="23"/>
       <c r="B299" s="20" t="s">
         <v>241</v>
@@ -8453,7 +8452,7 @@
       <c r="J299" s="11"/>
       <c r="K299" s="20"/>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A300" s="23">
         <f>EDATE(A296,1)</f>
         <v>41671</v>
@@ -8478,7 +8477,7 @@
       <c r="J300" s="11"/>
       <c r="K300" s="20"/>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A301" s="23"/>
       <c r="B301" s="20" t="s">
         <v>249</v>
@@ -8495,7 +8494,7 @@
       <c r="J301" s="11"/>
       <c r="K301" s="20"/>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A302" s="23">
         <f>EDATE(A300,1)</f>
         <v>41699</v>
@@ -8520,7 +8519,7 @@
       <c r="J302" s="11"/>
       <c r="K302" s="20"/>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A303" s="23">
         <f t="shared" ref="A303:A313" si="17">EDATE(A302,1)</f>
         <v>41730</v>
@@ -8545,7 +8544,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A304" s="23"/>
       <c r="B304" s="20" t="s">
         <v>95</v>
@@ -8564,7 +8563,7 @@
         <v>45058</v>
       </c>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A305" s="23"/>
       <c r="B305" s="20" t="s">
         <v>205</v>
@@ -8581,7 +8580,7 @@
       <c r="J305" s="11"/>
       <c r="K305" s="20"/>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A306" s="23">
         <f>EDATE(A303,1)</f>
         <v>41760</v>
@@ -8606,7 +8605,7 @@
       <c r="J306" s="11"/>
       <c r="K306" s="20"/>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A307" s="23">
         <f t="shared" si="17"/>
         <v>41791</v>
@@ -8633,7 +8632,7 @@
         <v>45094</v>
       </c>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A308" s="23"/>
       <c r="B308" s="20" t="s">
         <v>243</v>
@@ -8650,7 +8649,7 @@
       <c r="J308" s="11"/>
       <c r="K308" s="20"/>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A309" s="23">
         <f>EDATE(A307,1)</f>
         <v>41821</v>
@@ -8675,7 +8674,7 @@
       <c r="J309" s="11"/>
       <c r="K309" s="20"/>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A310" s="23">
         <f t="shared" si="17"/>
         <v>41852</v>
@@ -8700,7 +8699,7 @@
       <c r="J310" s="11"/>
       <c r="K310" s="20"/>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A311" s="23">
         <f t="shared" si="17"/>
         <v>41883</v>
@@ -8725,7 +8724,7 @@
       <c r="J311" s="11"/>
       <c r="K311" s="20"/>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A312" s="23">
         <f t="shared" si="17"/>
         <v>41913</v>
@@ -8750,7 +8749,7 @@
       <c r="J312" s="11"/>
       <c r="K312" s="20"/>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A313" s="23">
         <f t="shared" si="17"/>
         <v>41944</v>
@@ -8777,7 +8776,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A314" s="23"/>
       <c r="B314" s="20" t="s">
         <v>247</v>
@@ -8794,7 +8793,7 @@
       <c r="J314" s="11"/>
       <c r="K314" s="20"/>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A315" s="23">
         <f>EDATE(A313,1)</f>
         <v>41974</v>
@@ -8819,7 +8818,7 @@
       <c r="J315" s="11"/>
       <c r="K315" s="20"/>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A316" s="48" t="s">
         <v>248</v>
       </c>
@@ -8837,7 +8836,7 @@
       <c r="J316" s="11"/>
       <c r="K316" s="20"/>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A317" s="23">
         <f>EDATE(A315,1)</f>
         <v>42005</v>
@@ -8864,7 +8863,7 @@
         <v>44942</v>
       </c>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A318" s="23"/>
       <c r="B318" s="20" t="s">
         <v>213</v>
@@ -8881,7 +8880,7 @@
       <c r="J318" s="11"/>
       <c r="K318" s="20"/>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A319" s="23">
         <f>EDATE(A317,1)</f>
         <v>42036</v>
@@ -8906,7 +8905,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A320" s="23"/>
       <c r="B320" s="20" t="s">
         <v>116</v>
@@ -8923,7 +8922,7 @@
       <c r="J320" s="11"/>
       <c r="K320" s="20"/>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A321" s="23">
         <f>EDATE(A319,1)</f>
         <v>42064</v>
@@ -8950,7 +8949,7 @@
         <v>44991</v>
       </c>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A322" s="23"/>
       <c r="B322" s="20" t="s">
         <v>254</v>
@@ -8967,7 +8966,7 @@
       <c r="J322" s="11"/>
       <c r="K322" s="20"/>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A323" s="23">
         <f>EDATE(A321,1)</f>
         <v>42095</v>
@@ -8994,7 +8993,7 @@
         <v>45026</v>
       </c>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A324" s="23"/>
       <c r="B324" s="20" t="s">
         <v>126</v>
@@ -9011,7 +9010,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A325" s="23"/>
       <c r="B325" s="20" t="s">
         <v>255</v>
@@ -9028,7 +9027,7 @@
       <c r="J325" s="11"/>
       <c r="K325" s="20"/>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A326" s="23">
         <f>EDATE(A323,1)</f>
         <v>42125</v>
@@ -9055,7 +9054,7 @@
         <v>45067</v>
       </c>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A327" s="23"/>
       <c r="B327" s="20" t="s">
         <v>256</v>
@@ -9072,7 +9071,7 @@
       <c r="J327" s="11"/>
       <c r="K327" s="20"/>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A328" s="23">
         <f>EDATE(A326,1)</f>
         <v>42156</v>
@@ -9097,7 +9096,7 @@
       <c r="J328" s="11"/>
       <c r="K328" s="20"/>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A329" s="23">
         <f t="shared" ref="A329:A333" si="18">EDATE(A328,1)</f>
         <v>42186</v>
@@ -9124,7 +9123,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A330" s="23"/>
       <c r="B330" s="20" t="s">
         <v>151</v>
@@ -9141,7 +9140,7 @@
       <c r="J330" s="11"/>
       <c r="K330" s="20"/>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A331" s="23">
         <f>EDATE(A329,1)</f>
         <v>42217</v>
@@ -9166,7 +9165,7 @@
       <c r="J331" s="11"/>
       <c r="K331" s="20"/>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A332" s="23">
         <f t="shared" si="18"/>
         <v>42248</v>
@@ -9191,7 +9190,7 @@
       <c r="J332" s="11"/>
       <c r="K332" s="20"/>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A333" s="23">
         <f t="shared" si="18"/>
         <v>42278</v>
@@ -9216,7 +9215,7 @@
       <c r="J333" s="11"/>
       <c r="K333" s="20"/>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A334" s="23">
         <f>EDATE(A333,1)</f>
         <v>42309</v>
@@ -9243,7 +9242,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A335" s="23"/>
       <c r="B335" s="20" t="s">
         <v>261</v>
@@ -9260,7 +9259,7 @@
       <c r="J335" s="11"/>
       <c r="K335" s="20"/>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A336" s="23">
         <f>EDATE(A334,1)</f>
         <v>42339</v>
@@ -9285,7 +9284,7 @@
       <c r="J336" s="11"/>
       <c r="K336" s="20"/>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A337" s="48" t="s">
         <v>262</v>
       </c>
@@ -9303,7 +9302,7 @@
       <c r="J337" s="11"/>
       <c r="K337" s="20"/>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A338" s="23">
         <f>EDATE(A336,1)</f>
         <v>42370</v>
@@ -9330,7 +9329,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A339" s="23">
         <f>EDATE(A338,1)</f>
         <v>42401</v>
@@ -9355,7 +9354,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A340" s="23"/>
       <c r="B340" s="20" t="s">
         <v>95</v>
@@ -9374,7 +9373,7 @@
         <v>44972</v>
       </c>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A341" s="23">
         <f>EDATE(A339,1)</f>
         <v>42430</v>
@@ -9401,7 +9400,7 @@
         <v>45000</v>
       </c>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A342" s="23"/>
       <c r="B342" s="20" t="s">
         <v>126</v>
@@ -9418,7 +9417,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A343" s="23"/>
       <c r="B343" s="20" t="s">
         <v>88</v>
@@ -9437,7 +9436,7 @@
         <v>45035</v>
       </c>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A344" s="23">
         <f>EDATE(A341,1)</f>
         <v>42461</v>
@@ -9458,7 +9457,7 @@
       <c r="J344" s="11"/>
       <c r="K344" s="20"/>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A345" s="23">
         <f t="shared" ref="A345:A352" si="19">EDATE(A344,1)</f>
         <v>42491</v>
@@ -9483,7 +9482,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A346" s="23">
         <f t="shared" si="19"/>
         <v>42522</v>
@@ -9504,7 +9503,7 @@
       <c r="J346" s="11"/>
       <c r="K346" s="20"/>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A347" s="23">
         <f t="shared" si="19"/>
         <v>42552</v>
@@ -9525,7 +9524,7 @@
       <c r="J347" s="11"/>
       <c r="K347" s="20"/>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A348" s="23">
         <f t="shared" si="19"/>
         <v>42583</v>
@@ -9552,7 +9551,7 @@
         <v>45154</v>
       </c>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A349" s="23">
         <f t="shared" si="19"/>
         <v>42614</v>
@@ -9579,7 +9578,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A350" s="23">
         <f t="shared" si="19"/>
         <v>42644</v>
@@ -9600,7 +9599,7 @@
       <c r="J350" s="11"/>
       <c r="K350" s="20"/>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A351" s="23">
         <f t="shared" si="19"/>
         <v>42675</v>
@@ -9621,7 +9620,7 @@
       <c r="J351" s="11"/>
       <c r="K351" s="20"/>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A352" s="23">
         <f t="shared" si="19"/>
         <v>42705</v>
@@ -9648,7 +9647,7 @@
         <v>45279</v>
       </c>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A353" s="48" t="s">
         <v>268</v>
       </c>
@@ -9666,7 +9665,7 @@
       <c r="J353" s="11"/>
       <c r="K353" s="20"/>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A354" s="23">
         <f>EDATE(A352,1)</f>
         <v>42736</v>
@@ -9693,7 +9692,7 @@
         <v>44946</v>
       </c>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A355" s="23"/>
       <c r="B355" s="20" t="s">
         <v>95</v>
@@ -9712,7 +9711,7 @@
         <v>44938</v>
       </c>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A356" s="23"/>
       <c r="B356" s="20" t="s">
         <v>91</v>
@@ -9731,7 +9730,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A357" s="23"/>
       <c r="B357" s="20" t="s">
         <v>126</v>
@@ -9748,7 +9747,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A358" s="23">
         <f>EDATE(A354,1)</f>
         <v>42767</v>
@@ -9769,7 +9768,7 @@
       <c r="J358" s="11"/>
       <c r="K358" s="20"/>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A359" s="23">
         <f t="shared" ref="A359:A370" si="20">EDATE(A358,1)</f>
         <v>42795</v>
@@ -9796,7 +9795,7 @@
         <v>45002</v>
       </c>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A360" s="23">
         <f t="shared" si="20"/>
         <v>42826</v>
@@ -9821,7 +9820,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A361" s="23"/>
       <c r="B361" s="20" t="s">
         <v>95</v>
@@ -9840,7 +9839,7 @@
         <v>45051</v>
       </c>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A362" s="23">
         <f>EDATE(A360,1)</f>
         <v>42856</v>
@@ -9861,7 +9860,7 @@
       <c r="J362" s="11"/>
       <c r="K362" s="20"/>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A363" s="23">
         <f t="shared" si="20"/>
         <v>42887</v>
@@ -9886,7 +9885,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A364" s="23">
         <f t="shared" si="20"/>
         <v>42917</v>
@@ -9907,7 +9906,7 @@
       <c r="J364" s="11"/>
       <c r="K364" s="20"/>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A365" s="23">
         <f t="shared" si="20"/>
         <v>42948</v>
@@ -9928,7 +9927,7 @@
       <c r="J365" s="11"/>
       <c r="K365" s="20"/>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A366" s="23">
         <f t="shared" si="20"/>
         <v>42979</v>
@@ -9949,7 +9948,7 @@
       <c r="J366" s="11"/>
       <c r="K366" s="20"/>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A367" s="23">
         <f t="shared" si="20"/>
         <v>43009</v>
@@ -9976,7 +9975,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A368" s="23"/>
       <c r="B368" s="20" t="s">
         <v>273</v>
@@ -9995,7 +9994,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A369" s="23">
         <f>EDATE(A367,1)</f>
         <v>43040</v>
@@ -10022,7 +10021,7 @@
         <v>45250</v>
       </c>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A370" s="23">
         <f t="shared" si="20"/>
         <v>43070</v>
@@ -10049,7 +10048,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A371" s="23"/>
       <c r="B371" s="20" t="s">
         <v>81</v>
@@ -10069,7 +10068,7 @@
       <c r="J371" s="11"/>
       <c r="K371" s="20"/>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A372" s="48" t="s">
         <v>47</v>
       </c>
@@ -10091,7 +10090,7 @@
       <c r="J372" s="11"/>
       <c r="K372" s="20"/>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A373" s="40">
         <v>43101</v>
       </c>
@@ -10115,7 +10114,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A374" s="40">
         <v>43132</v>
       </c>
@@ -10135,7 +10134,7 @@
       <c r="J374" s="11"/>
       <c r="K374" s="20"/>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A375" s="40">
         <v>43160</v>
       </c>
@@ -10155,7 +10154,7 @@
       <c r="J375" s="11"/>
       <c r="K375" s="20"/>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A376" s="40">
         <v>43191</v>
       </c>
@@ -10181,7 +10180,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A377" s="40"/>
       <c r="B377" s="20" t="s">
         <v>50</v>
@@ -10203,7 +10202,7 @@
         <v>43195</v>
       </c>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A378" s="41">
         <v>43221</v>
       </c>
@@ -10223,7 +10222,7 @@
       <c r="J378" s="12"/>
       <c r="K378" s="15"/>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A379" s="40">
         <v>43252</v>
       </c>
@@ -10249,7 +10248,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A380" s="40"/>
       <c r="B380" s="20" t="s">
         <v>91</v>
@@ -10273,7 +10272,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A381" s="40">
         <v>43282</v>
       </c>
@@ -10293,7 +10292,7 @@
       <c r="J381" s="11"/>
       <c r="K381" s="20"/>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A382" s="40">
         <v>43313</v>
       </c>
@@ -10313,7 +10312,7 @@
       <c r="J382" s="11"/>
       <c r="K382" s="20"/>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A383" s="40">
         <v>43344</v>
       </c>
@@ -10339,7 +10338,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A384" s="40">
         <v>43374</v>
       </c>
@@ -10365,7 +10364,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A385" s="40">
         <v>43405</v>
       </c>
@@ -10385,7 +10384,7 @@
       <c r="J385" s="11"/>
       <c r="K385" s="20"/>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A386" s="40">
         <v>43435</v>
       </c>
@@ -10409,7 +10408,7 @@
       <c r="J386" s="11"/>
       <c r="K386" s="20"/>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A387" s="48" t="s">
         <v>56</v>
       </c>
@@ -10427,7 +10426,7 @@
       <c r="J387" s="11"/>
       <c r="K387" s="20"/>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A388" s="40">
         <v>43466</v>
       </c>
@@ -10453,7 +10452,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A389" s="40">
         <v>43497</v>
       </c>
@@ -10477,7 +10476,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A390" s="40">
         <v>43525</v>
       </c>
@@ -10503,7 +10502,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A391" s="40">
         <v>43556</v>
       </c>
@@ -10523,7 +10522,7 @@
       <c r="J391" s="11"/>
       <c r="K391" s="20"/>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A392" s="40">
         <v>43586</v>
       </c>
@@ -10547,7 +10546,7 @@
         <v>43713</v>
       </c>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A393" s="40">
         <v>43617</v>
       </c>
@@ -10571,7 +10570,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A394" s="40">
         <v>43647</v>
       </c>
@@ -10591,7 +10590,7 @@
       <c r="J394" s="11"/>
       <c r="K394" s="20"/>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A395" s="40">
         <v>43678</v>
       </c>
@@ -10611,7 +10610,7 @@
       <c r="J395" s="11"/>
       <c r="K395" s="20"/>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A396" s="40">
         <v>43709</v>
       </c>
@@ -10637,7 +10636,7 @@
         <v>43505</v>
       </c>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A397" s="40">
         <v>43739</v>
       </c>
@@ -10663,7 +10662,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A398" s="40">
         <v>43770</v>
       </c>
@@ -10687,7 +10686,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A399" s="40"/>
       <c r="B399" s="20" t="s">
         <v>63</v>
@@ -10711,7 +10710,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A400" s="40"/>
       <c r="B400" s="20" t="s">
         <v>66</v>
@@ -10733,7 +10732,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A401" s="40">
         <v>43800</v>
       </c>
@@ -10753,7 +10752,7 @@
       <c r="J401" s="11"/>
       <c r="K401" s="20"/>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A402" s="48" t="s">
         <v>68</v>
       </c>
@@ -10771,7 +10770,7 @@
       <c r="J402" s="11"/>
       <c r="K402" s="20"/>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A403" s="40">
         <v>43831</v>
       </c>
@@ -10795,7 +10794,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A404" s="40">
         <v>43862</v>
       </c>
@@ -10815,7 +10814,7 @@
       <c r="J404" s="11"/>
       <c r="K404" s="20"/>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A405" s="40">
         <v>43891</v>
       </c>
@@ -10835,7 +10834,7 @@
       <c r="J405" s="11"/>
       <c r="K405" s="20"/>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A406" s="40">
         <v>43922</v>
       </c>
@@ -10855,7 +10854,7 @@
       <c r="J406" s="11"/>
       <c r="K406" s="20"/>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A407" s="40">
         <v>43952</v>
       </c>
@@ -10879,7 +10878,7 @@
         <v>43926</v>
       </c>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A408" s="40">
         <v>43983</v>
       </c>
@@ -10903,7 +10902,7 @@
         <v>43957</v>
       </c>
     </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A409" s="40">
         <v>44013</v>
       </c>
@@ -10927,7 +10926,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A410" s="40">
         <v>44044</v>
       </c>
@@ -10947,7 +10946,7 @@
       <c r="J410" s="11"/>
       <c r="K410" s="20"/>
     </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A411" s="40">
         <v>44075</v>
       </c>
@@ -10967,7 +10966,7 @@
       <c r="J411" s="11"/>
       <c r="K411" s="20"/>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A412" s="40">
         <v>44105</v>
       </c>
@@ -10987,7 +10986,7 @@
       <c r="J412" s="11"/>
       <c r="K412" s="20"/>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A413" s="40">
         <v>44136</v>
       </c>
@@ -11007,7 +11006,7 @@
       <c r="J413" s="11"/>
       <c r="K413" s="20"/>
     </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A414" s="40">
         <v>44166</v>
       </c>
@@ -11031,7 +11030,7 @@
       <c r="J414" s="11"/>
       <c r="K414" s="20"/>
     </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A415" s="48" t="s">
         <v>72</v>
       </c>
@@ -11049,7 +11048,7 @@
       <c r="J415" s="11"/>
       <c r="K415" s="20"/>
     </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A416" s="40">
         <v>44197</v>
       </c>
@@ -11069,7 +11068,7 @@
       <c r="J416" s="11"/>
       <c r="K416" s="20"/>
     </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A417" s="40">
         <v>44228</v>
       </c>
@@ -11089,7 +11088,7 @@
       <c r="J417" s="11"/>
       <c r="K417" s="20"/>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A418" s="40">
         <v>44256</v>
       </c>
@@ -11109,7 +11108,7 @@
       <c r="J418" s="11"/>
       <c r="K418" s="20"/>
     </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A419" s="40">
         <v>44287</v>
       </c>
@@ -11129,7 +11128,7 @@
       <c r="J419" s="11"/>
       <c r="K419" s="20"/>
     </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A420" s="40">
         <v>44317</v>
       </c>
@@ -11149,7 +11148,7 @@
       <c r="J420" s="11"/>
       <c r="K420" s="20"/>
     </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A421" s="40">
         <v>44348</v>
       </c>
@@ -11173,7 +11172,7 @@
         <v>44323</v>
       </c>
     </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A422" s="40">
         <v>44378</v>
       </c>
@@ -11193,7 +11192,7 @@
       <c r="J422" s="11"/>
       <c r="K422" s="20"/>
     </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A423" s="40">
         <v>44409</v>
       </c>
@@ -11213,7 +11212,7 @@
       <c r="J423" s="11"/>
       <c r="K423" s="20"/>
     </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A424" s="40">
         <v>44440</v>
       </c>
@@ -11237,7 +11236,7 @@
         <v>44236</v>
       </c>
     </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A425" s="40">
         <v>44470</v>
       </c>
@@ -11261,7 +11260,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A426" s="40">
         <v>44501</v>
       </c>
@@ -11287,7 +11286,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A427" s="40"/>
       <c r="B427" s="20" t="s">
         <v>74</v>
@@ -11309,7 +11308,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A428" s="40">
         <v>44531</v>
       </c>
@@ -11329,7 +11328,7 @@
       <c r="J428" s="11"/>
       <c r="K428" s="20"/>
     </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A429" s="40"/>
       <c r="B429" s="20"/>
       <c r="C429" s="13"/>
@@ -11345,7 +11344,7 @@
       <c r="J429" s="11"/>
       <c r="K429" s="20"/>
     </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A430" s="48" t="s">
         <v>77</v>
       </c>
@@ -11363,7 +11362,7 @@
       <c r="J430" s="11"/>
       <c r="K430" s="20"/>
     </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A431" s="40">
         <v>44562</v>
       </c>
@@ -11383,7 +11382,7 @@
       <c r="J431" s="11"/>
       <c r="K431" s="20"/>
     </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A432" s="40">
         <v>44593</v>
       </c>
@@ -11403,7 +11402,7 @@
       <c r="J432" s="11"/>
       <c r="K432" s="20"/>
     </row>
-    <row r="433" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A433" s="40">
         <v>44621</v>
       </c>
@@ -11429,7 +11428,7 @@
         <v>44776</v>
       </c>
     </row>
-    <row r="434" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A434" s="40">
         <v>44652</v>
       </c>
@@ -11449,7 +11448,7 @@
       <c r="J434" s="11"/>
       <c r="K434" s="20"/>
     </row>
-    <row r="435" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A435" s="40">
         <v>44682</v>
       </c>
@@ -11475,7 +11474,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="436" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A436" s="40">
         <v>44713</v>
       </c>
@@ -11499,7 +11498,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="437" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A437" s="40"/>
       <c r="B437" s="20" t="s">
         <v>95</v>
@@ -11521,7 +11520,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="438" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A438" s="40">
         <v>44743</v>
       </c>
@@ -11541,7 +11540,7 @@
       <c r="J438" s="11"/>
       <c r="K438" s="20"/>
     </row>
-    <row r="439" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A439" s="40">
         <v>44774</v>
       </c>
@@ -11561,7 +11560,7 @@
       <c r="J439" s="11"/>
       <c r="K439" s="20"/>
     </row>
-    <row r="440" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A440" s="40">
         <v>44805</v>
       </c>
@@ -11587,7 +11586,7 @@
         <v>44825</v>
       </c>
     </row>
-    <row r="441" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A441" s="40">
         <v>44835</v>
       </c>
@@ -11607,7 +11606,7 @@
       <c r="J441" s="11"/>
       <c r="K441" s="20"/>
     </row>
-    <row r="442" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A442" s="40">
         <v>44866</v>
       </c>
@@ -11633,7 +11632,7 @@
         <v>44876</v>
       </c>
     </row>
-    <row r="443" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A443" s="40">
         <v>44896</v>
       </c>
@@ -11659,7 +11658,7 @@
         <v>44914</v>
       </c>
     </row>
-    <row r="444" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A444" s="48" t="s">
         <v>82</v>
       </c>
@@ -11677,7 +11676,7 @@
       <c r="J444" s="11"/>
       <c r="K444" s="20"/>
     </row>
-    <row r="445" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A445" s="40">
         <v>44927</v>
       </c>
@@ -11701,7 +11700,7 @@
         <v>44937</v>
       </c>
     </row>
-    <row r="446" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A446" s="40">
         <v>44958</v>
       </c>
@@ -11721,7 +11720,7 @@
       <c r="J446" s="11"/>
       <c r="K446" s="20"/>
     </row>
-    <row r="447" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A447" s="40">
         <v>44986</v>
       </c>
@@ -11741,20 +11740,22 @@
       <c r="J447" s="11"/>
       <c r="K447" s="20"/>
     </row>
-    <row r="448" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A448" s="40">
         <v>45017</v>
       </c>
       <c r="B448" s="20" t="s">
         <v>126</v>
       </c>
-      <c r="C448" s="13"/>
+      <c r="C448" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D448" s="39"/>
       <c r="E448" s="9"/>
       <c r="F448" s="20"/>
-      <c r="G448" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G448" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H448" s="39"/>
       <c r="I448" s="9"/>
@@ -11763,29 +11764,33 @@
         <v>45050</v>
       </c>
     </row>
-    <row r="449" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A449" s="40">
         <v>45047</v>
       </c>
       <c r="B449" s="20"/>
-      <c r="C449" s="13"/>
+      <c r="C449" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D449" s="39"/>
       <c r="E449" s="9"/>
       <c r="F449" s="20"/>
-      <c r="G449" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G449" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H449" s="39"/>
       <c r="I449" s="9"/>
       <c r="J449" s="11"/>
       <c r="K449" s="20"/>
     </row>
-    <row r="450" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A450" s="40">
         <v>45078</v>
       </c>
-      <c r="B450" s="20"/>
+      <c r="B450" s="20" t="s">
+        <v>126</v>
+      </c>
       <c r="C450" s="13"/>
       <c r="D450" s="39"/>
       <c r="E450" s="9"/>
@@ -11797,9 +11802,11 @@
       <c r="H450" s="39"/>
       <c r="I450" s="9"/>
       <c r="J450" s="11"/>
-      <c r="K450" s="20"/>
-    </row>
-    <row r="451" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K450" s="49">
+        <v>45097</v>
+      </c>
+    </row>
+    <row r="451" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A451" s="40">
         <v>45108</v>
       </c>
@@ -11817,7 +11824,7 @@
       <c r="J451" s="11"/>
       <c r="K451" s="20"/>
     </row>
-    <row r="452" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A452" s="40">
         <v>45139</v>
       </c>
@@ -11835,7 +11842,7 @@
       <c r="J452" s="11"/>
       <c r="K452" s="20"/>
     </row>
-    <row r="453" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A453" s="40">
         <v>45170</v>
       </c>
@@ -11853,7 +11860,7 @@
       <c r="J453" s="11"/>
       <c r="K453" s="20"/>
     </row>
-    <row r="454" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A454" s="40">
         <v>45200</v>
       </c>
@@ -11871,7 +11878,7 @@
       <c r="J454" s="11"/>
       <c r="K454" s="20"/>
     </row>
-    <row r="455" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A455" s="40">
         <v>45231</v>
       </c>
@@ -11889,7 +11896,7 @@
       <c r="J455" s="11"/>
       <c r="K455" s="20"/>
     </row>
-    <row r="456" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A456" s="40">
         <v>45261</v>
       </c>
@@ -11907,7 +11914,7 @@
       <c r="J456" s="11"/>
       <c r="K456" s="20"/>
     </row>
-    <row r="457" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A457" s="40">
         <v>45292</v>
       </c>
@@ -11925,7 +11932,7 @@
       <c r="J457" s="11"/>
       <c r="K457" s="20"/>
     </row>
-    <row r="458" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A458" s="40">
         <v>45323</v>
       </c>
@@ -11943,7 +11950,7 @@
       <c r="J458" s="11"/>
       <c r="K458" s="20"/>
     </row>
-    <row r="459" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A459" s="40">
         <v>45352</v>
       </c>
@@ -11961,7 +11968,7 @@
       <c r="J459" s="11"/>
       <c r="K459" s="20"/>
     </row>
-    <row r="460" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A460" s="40">
         <v>45383</v>
       </c>
@@ -11979,7 +11986,7 @@
       <c r="J460" s="11"/>
       <c r="K460" s="20"/>
     </row>
-    <row r="461" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A461" s="40">
         <v>45413</v>
       </c>
@@ -11997,7 +12004,7 @@
       <c r="J461" s="11"/>
       <c r="K461" s="20"/>
     </row>
-    <row r="462" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A462" s="40">
         <v>45444</v>
       </c>
@@ -12015,7 +12022,7 @@
       <c r="J462" s="11"/>
       <c r="K462" s="20"/>
     </row>
-    <row r="463" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A463" s="40">
         <v>45474</v>
       </c>
@@ -12033,7 +12040,7 @@
       <c r="J463" s="11"/>
       <c r="K463" s="20"/>
     </row>
-    <row r="464" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A464" s="40">
         <v>45505</v>
       </c>
@@ -12051,7 +12058,7 @@
       <c r="J464" s="11"/>
       <c r="K464" s="20"/>
     </row>
-    <row r="465" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A465" s="40">
         <v>45536</v>
       </c>
@@ -12069,7 +12076,7 @@
       <c r="J465" s="11"/>
       <c r="K465" s="20"/>
     </row>
-    <row r="466" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A466" s="40">
         <v>45566</v>
       </c>
@@ -12087,7 +12094,7 @@
       <c r="J466" s="11"/>
       <c r="K466" s="20"/>
     </row>
-    <row r="467" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A467" s="40">
         <v>45597</v>
       </c>
@@ -12105,7 +12112,7 @@
       <c r="J467" s="11"/>
       <c r="K467" s="20"/>
     </row>
-    <row r="468" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A468" s="40">
         <v>45627</v>
       </c>
@@ -12123,7 +12130,7 @@
       <c r="J468" s="11"/>
       <c r="K468" s="20"/>
     </row>
-    <row r="469" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A469" s="40">
         <v>45658</v>
       </c>
@@ -12141,7 +12148,7 @@
       <c r="J469" s="11"/>
       <c r="K469" s="20"/>
     </row>
-    <row r="470" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A470" s="40">
         <v>45689</v>
       </c>
@@ -12159,7 +12166,7 @@
       <c r="J470" s="11"/>
       <c r="K470" s="20"/>
     </row>
-    <row r="471" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A471" s="40">
         <v>45717</v>
       </c>
@@ -12177,7 +12184,7 @@
       <c r="J471" s="11"/>
       <c r="K471" s="20"/>
     </row>
-    <row r="472" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A472" s="40">
         <v>45748</v>
       </c>
@@ -12195,7 +12202,7 @@
       <c r="J472" s="11"/>
       <c r="K472" s="20"/>
     </row>
-    <row r="473" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A473" s="40">
         <v>45778</v>
       </c>
@@ -12213,7 +12220,7 @@
       <c r="J473" s="11"/>
       <c r="K473" s="20"/>
     </row>
-    <row r="474" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A474" s="40">
         <v>45809</v>
       </c>
@@ -12231,7 +12238,7 @@
       <c r="J474" s="11"/>
       <c r="K474" s="20"/>
     </row>
-    <row r="475" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A475" s="40">
         <v>45839</v>
       </c>
@@ -12249,7 +12256,7 @@
       <c r="J475" s="11"/>
       <c r="K475" s="20"/>
     </row>
-    <row r="476" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A476" s="40">
         <v>45870</v>
       </c>
@@ -12267,7 +12274,7 @@
       <c r="J476" s="11"/>
       <c r="K476" s="20"/>
     </row>
-    <row r="477" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A477" s="40">
         <v>45901</v>
       </c>
@@ -12285,7 +12292,7 @@
       <c r="J477" s="11"/>
       <c r="K477" s="20"/>
     </row>
-    <row r="478" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A478" s="40">
         <v>45931</v>
       </c>
@@ -12303,7 +12310,7 @@
       <c r="J478" s="11"/>
       <c r="K478" s="20"/>
     </row>
-    <row r="479" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A479" s="40">
         <v>45962</v>
       </c>
@@ -12321,7 +12328,7 @@
       <c r="J479" s="11"/>
       <c r="K479" s="20"/>
     </row>
-    <row r="480" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A480" s="40">
         <v>45992</v>
       </c>
@@ -12339,7 +12346,7 @@
       <c r="J480" s="11"/>
       <c r="K480" s="20"/>
     </row>
-    <row r="481" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A481" s="40">
         <v>46023</v>
       </c>
@@ -12357,7 +12364,7 @@
       <c r="J481" s="11"/>
       <c r="K481" s="20"/>
     </row>
-    <row r="482" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A482" s="40">
         <v>46054</v>
       </c>
@@ -12375,7 +12382,7 @@
       <c r="J482" s="11"/>
       <c r="K482" s="20"/>
     </row>
-    <row r="483" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A483" s="40"/>
       <c r="B483" s="20"/>
       <c r="C483" s="13"/>
@@ -12391,7 +12398,7 @@
       <c r="J483" s="11"/>
       <c r="K483" s="20"/>
     </row>
-    <row r="484" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A484" s="40"/>
       <c r="B484" s="20"/>
       <c r="C484" s="13"/>
@@ -12407,7 +12414,7 @@
       <c r="J484" s="11"/>
       <c r="K484" s="20"/>
     </row>
-    <row r="485" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A485" s="40"/>
       <c r="B485" s="20"/>
       <c r="C485" s="13"/>
@@ -12423,7 +12430,7 @@
       <c r="J485" s="11"/>
       <c r="K485" s="20"/>
     </row>
-    <row r="486" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A486" s="40"/>
       <c r="B486" s="20"/>
       <c r="C486" s="13"/>
@@ -12439,7 +12446,7 @@
       <c r="J486" s="11"/>
       <c r="K486" s="20"/>
     </row>
-    <row r="487" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A487" s="40"/>
       <c r="B487" s="20"/>
       <c r="C487" s="13"/>
@@ -12455,7 +12462,7 @@
       <c r="J487" s="11"/>
       <c r="K487" s="20"/>
     </row>
-    <row r="488" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A488" s="40"/>
       <c r="B488" s="20"/>
       <c r="C488" s="13"/>
@@ -12471,7 +12478,7 @@
       <c r="J488" s="11"/>
       <c r="K488" s="20"/>
     </row>
-    <row r="489" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A489" s="40"/>
       <c r="B489" s="20"/>
       <c r="C489" s="13"/>
@@ -12487,7 +12494,7 @@
       <c r="J489" s="11"/>
       <c r="K489" s="20"/>
     </row>
-    <row r="490" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A490" s="40"/>
       <c r="B490" s="20"/>
       <c r="C490" s="13"/>
@@ -12503,7 +12510,7 @@
       <c r="J490" s="11"/>
       <c r="K490" s="20"/>
     </row>
-    <row r="491" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A491" s="40"/>
       <c r="B491" s="20"/>
       <c r="C491" s="13"/>
@@ -12519,7 +12526,7 @@
       <c r="J491" s="11"/>
       <c r="K491" s="20"/>
     </row>
-    <row r="492" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A492" s="41"/>
       <c r="B492" s="15"/>
       <c r="C492" s="42"/>
@@ -12550,10 +12557,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -12576,28 +12583,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3:B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.88671875" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.88671875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="61" t="s">
         <v>33</v>
       </c>
@@ -12610,7 +12617,7 @@
       <c r="K1" s="62"/>
       <c r="L1" s="62"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -12639,7 +12646,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="D3" s="11">
@@ -12665,17 +12672,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -12696,7 +12703,7 @@
       <c r="K6" s="63"/>
       <c r="L6" s="63"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -12723,7 +12730,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -12749,7 +12756,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -12775,7 +12782,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -12801,7 +12808,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -12827,7 +12834,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -12853,7 +12860,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -12879,7 +12886,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -12905,7 +12912,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -12925,7 +12932,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -12945,7 +12952,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -12965,7 +12972,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -12986,7 +12993,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -13007,7 +13014,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -13028,7 +13035,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -13049,7 +13056,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -13070,7 +13077,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -13091,7 +13098,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -13112,7 +13119,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -13133,7 +13140,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -13154,7 +13161,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -13175,7 +13182,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -13196,7 +13203,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -13217,7 +13224,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -13238,7 +13245,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -13259,7 +13266,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -13280,7 +13287,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -13301,7 +13308,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -13322,7 +13329,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -13343,7 +13350,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -13364,7 +13371,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -13385,7 +13392,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -13394,7 +13401,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -13403,7 +13410,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -13412,7 +13419,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -13421,7 +13428,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -13430,7 +13437,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -13439,7 +13446,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -13448,7 +13455,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -13457,7 +13464,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -13466,7 +13473,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -13475,7 +13482,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -13484,7 +13491,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -13493,7 +13500,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -13502,7 +13509,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -13511,7 +13518,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -13520,7 +13527,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -13529,7 +13536,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -13538,7 +13545,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -13547,7 +13554,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -13556,7 +13563,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -13565,7 +13572,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -13574,7 +13581,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -13583,7 +13590,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -13592,7 +13599,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -13601,7 +13608,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -13610,7 +13617,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -13619,7 +13626,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -13628,7 +13635,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -13637,7 +13644,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -13646,7 +13653,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
